--- a/Purchase Records.xlsx
+++ b/Purchase Records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8952"/>
+    <workbookView windowWidth="23040" windowHeight="8952" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase Records" sheetId="1" r:id="rId1"/>
@@ -1407,7 +1407,7 @@
   <sheetPr/>
   <dimension ref="A1:K318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -10065,13 +10065,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.1578947368421" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1052631578947" style="2" customWidth="1"/>
@@ -10186,6 +10186,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>45597</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Purchase Records.xlsx
+++ b/Purchase Records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8952" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase Records" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -763,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,20 +839,14 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1405,10 +1399,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K318"/>
+  <dimension ref="A1:K319"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4"/>
@@ -1451,13 +1445,13 @@
       <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1488,15 +1482,15 @@
         <f t="shared" ref="H2:H9" si="1">F2-G2</f>
         <v>150</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="29">
         <f>((F2)-(D2*C2)-G2)*0.3</f>
         <v>14.196</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="30">
         <f>((F2)-(D2*C2)-G2)*0.6</f>
         <v>28.392</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="31">
         <f t="shared" ref="K2:K9" si="2">((F2)-(D2*C2)-G2)*0.1</f>
         <v>4.732</v>
       </c>
@@ -1528,7 +1522,7 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="31">
         <f>((F3)-(D3*C3)-G3)*0.3</f>
         <v>31.491</v>
       </c>
@@ -1536,7 +1530,7 @@
         <f>((F3)-(D3*C3)-G3)*0.6</f>
         <v>62.982</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="31">
         <f t="shared" si="2"/>
         <v>10.497</v>
       </c>
@@ -1569,7 +1563,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="31">
         <f>((F4)-(D4*C4)-G4)*0.2</f>
         <v>5.714</v>
       </c>
@@ -1577,7 +1571,7 @@
         <f>((F4)-(D4*C4)-G4)*0.7</f>
         <v>19.999</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="31">
         <f t="shared" si="2"/>
         <v>2.857</v>
       </c>
@@ -1610,7 +1604,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="31">
         <f>((F5)-(D5*C5)-G5)*0.2</f>
         <v>9.064</v>
       </c>
@@ -1618,7 +1612,7 @@
         <f>((F5)-(D5*C5)-G5)*0.7</f>
         <v>31.724</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="31">
         <f t="shared" si="2"/>
         <v>4.532</v>
       </c>
@@ -1650,7 +1644,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="31">
         <f t="shared" ref="I6:I12" si="3">((F6)-(D6*C6)-G6)*0.2</f>
         <v>8.628</v>
       </c>
@@ -1658,7 +1652,7 @@
         <f t="shared" ref="J6:J18" si="4">((F6)-(D6*C6)-G6)*0.7</f>
         <v>30.198</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="31">
         <f t="shared" si="2"/>
         <v>4.314</v>
       </c>
@@ -1690,7 +1684,7 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="31">
         <f t="shared" si="3"/>
         <v>18.728</v>
       </c>
@@ -1698,7 +1692,7 @@
         <f t="shared" si="4"/>
         <v>65.548</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="31">
         <f t="shared" si="2"/>
         <v>9.364</v>
       </c>
@@ -1730,7 +1724,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="31">
         <f t="shared" si="3"/>
         <v>8.314</v>
       </c>
@@ -1738,7 +1732,7 @@
         <f t="shared" si="4"/>
         <v>29.099</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="31">
         <f t="shared" si="2"/>
         <v>4.157</v>
       </c>
@@ -1770,7 +1764,7 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <f t="shared" si="3"/>
         <v>12.576</v>
       </c>
@@ -1778,7 +1772,7 @@
         <f t="shared" si="4"/>
         <v>44.016</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="31">
         <f t="shared" si="2"/>
         <v>6.288</v>
       </c>
@@ -1811,7 +1805,7 @@
         <f t="shared" ref="H10:H15" si="6">F10-G10</f>
         <v>150</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <f t="shared" si="3"/>
         <v>4.018</v>
       </c>
@@ -1819,7 +1813,7 @@
         <f t="shared" si="4"/>
         <v>14.063</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="31">
         <f t="shared" ref="K10:K15" si="7">((F10)-(D10*C10)-G10)*0.1</f>
         <v>2.009</v>
       </c>
@@ -1852,7 +1846,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="31">
         <f t="shared" si="3"/>
         <v>1.678</v>
       </c>
@@ -1860,7 +1854,7 @@
         <f t="shared" si="4"/>
         <v>5.87299999999999</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="31">
         <f t="shared" si="7"/>
         <v>0.838999999999999</v>
       </c>
@@ -1892,7 +1886,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <f t="shared" ref="I12:I18" si="8">((F12)-(D12*C12)-G12)*0.2</f>
         <v>7.368</v>
       </c>
@@ -1900,7 +1894,7 @@
         <f t="shared" si="4"/>
         <v>25.788</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="31">
         <f t="shared" si="7"/>
         <v>3.684</v>
       </c>
@@ -1932,7 +1926,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="31">
         <f t="shared" si="8"/>
         <v>8.628</v>
       </c>
@@ -1940,7 +1934,7 @@
         <f t="shared" si="4"/>
         <v>30.198</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="31">
         <f t="shared" si="7"/>
         <v>4.314</v>
       </c>
@@ -1973,7 +1967,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="31">
         <f t="shared" si="8"/>
         <v>4.964</v>
       </c>
@@ -1981,7 +1975,7 @@
         <f t="shared" si="4"/>
         <v>17.374</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="31">
         <f t="shared" si="7"/>
         <v>2.482</v>
       </c>
@@ -2014,7 +2008,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="31">
         <f t="shared" si="8"/>
         <v>8.314</v>
       </c>
@@ -2022,7 +2016,7 @@
         <f t="shared" si="4"/>
         <v>29.099</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="31">
         <f t="shared" si="7"/>
         <v>4.157</v>
       </c>
@@ -2044,17 +2038,17 @@
         <v>200</v>
       </c>
       <c r="F16" s="16">
-        <f t="shared" ref="F16:F36" si="9">E16*C16</f>
+        <f t="shared" ref="F16:F37" si="9">E16*C16</f>
         <v>200</v>
       </c>
       <c r="G16" s="21">
         <v>50</v>
       </c>
       <c r="H16" s="18">
-        <f t="shared" ref="H16:H36" si="10">F16-G16</f>
+        <f t="shared" ref="H16:H37" si="10">F16-G16</f>
         <v>150</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="31">
         <f t="shared" si="8"/>
         <v>9.364</v>
       </c>
@@ -2062,8 +2056,8 @@
         <f t="shared" si="4"/>
         <v>32.774</v>
       </c>
-      <c r="K16" s="33">
-        <f t="shared" ref="K16:K36" si="11">((F16)-(D16*C16)-G16)*0.1</f>
+      <c r="K16" s="31">
+        <f t="shared" ref="K16:K37" si="11">((F16)-(D16*C16)-G16)*0.1</f>
         <v>4.682</v>
       </c>
     </row>
@@ -2094,7 +2088,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="31">
         <f t="shared" si="8"/>
         <v>9.064</v>
       </c>
@@ -2102,7 +2096,7 @@
         <f t="shared" si="4"/>
         <v>31.724</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="31">
         <f t="shared" si="11"/>
         <v>4.532</v>
       </c>
@@ -2134,7 +2128,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="31">
         <f t="shared" si="8"/>
         <v>7.368</v>
       </c>
@@ -2142,7 +2136,7 @@
         <f t="shared" si="4"/>
         <v>25.788</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="31">
         <f t="shared" si="11"/>
         <v>3.684</v>
       </c>
@@ -2175,15 +2169,15 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="31">
         <f>((F19)-(D19*C19)-G19)*0.3</f>
         <v>12.096</v>
       </c>
       <c r="J19" s="18">
-        <f t="shared" ref="J19:J36" si="12">((F19)-(D19*C19)-G19)*0.6</f>
+        <f t="shared" ref="J19:J37" si="12">((F19)-(D19*C19)-G19)*0.6</f>
         <v>24.192</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="31">
         <f t="shared" si="11"/>
         <v>4.032</v>
       </c>
@@ -2215,15 +2209,15 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I20" s="33">
-        <f t="shared" ref="I20:I36" si="13">((F20)-(D20*C20)-G20)*0.3</f>
+      <c r="I20" s="31">
+        <f t="shared" ref="I20:I37" si="13">((F20)-(D20*C20)-G20)*0.3</f>
         <v>11.052</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="12"/>
         <v>22.104</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="31">
         <f t="shared" si="11"/>
         <v>3.684</v>
       </c>
@@ -2256,7 +2250,7 @@
         <f t="shared" si="10"/>
         <v>300</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="31">
         <f t="shared" si="13"/>
         <v>21.942</v>
       </c>
@@ -2264,7 +2258,7 @@
         <f t="shared" si="12"/>
         <v>43.884</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="31">
         <f t="shared" si="11"/>
         <v>7.314</v>
       </c>
@@ -2296,7 +2290,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="31">
         <f t="shared" si="13"/>
         <v>12.471</v>
       </c>
@@ -2304,7 +2298,7 @@
         <f t="shared" si="12"/>
         <v>24.942</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="31">
         <f t="shared" si="11"/>
         <v>4.157</v>
       </c>
@@ -2337,7 +2331,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="31">
         <f t="shared" si="13"/>
         <v>11.442</v>
       </c>
@@ -2345,7 +2339,7 @@
         <f t="shared" si="12"/>
         <v>22.884</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="31">
         <f t="shared" si="11"/>
         <v>3.814</v>
       </c>
@@ -2378,7 +2372,7 @@
         <f t="shared" si="10"/>
         <v>340</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="31">
         <f t="shared" si="13"/>
         <v>34.884</v>
       </c>
@@ -2386,7 +2380,7 @@
         <f t="shared" si="12"/>
         <v>69.768</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="31">
         <f t="shared" si="11"/>
         <v>11.628</v>
       </c>
@@ -2418,7 +2412,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="31">
         <f t="shared" si="13"/>
         <v>15.432</v>
       </c>
@@ -2426,7 +2420,7 @@
         <f t="shared" si="12"/>
         <v>30.864</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="31">
         <f t="shared" si="11"/>
         <v>5.144</v>
       </c>
@@ -2458,7 +2452,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="31">
         <f t="shared" si="13"/>
         <v>17.052</v>
       </c>
@@ -2466,7 +2460,7 @@
         <f t="shared" si="12"/>
         <v>34.104</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="31">
         <f t="shared" si="11"/>
         <v>5.684</v>
       </c>
@@ -2499,7 +2493,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="31">
         <f t="shared" si="13"/>
         <v>18.546</v>
       </c>
@@ -2507,7 +2501,7 @@
         <f t="shared" si="12"/>
         <v>37.092</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="31">
         <f t="shared" si="11"/>
         <v>6.182</v>
       </c>
@@ -2541,7 +2535,7 @@
         <f t="shared" si="10"/>
         <v>168.3</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="31">
         <f t="shared" si="13"/>
         <v>19.941</v>
       </c>
@@ -2549,7 +2543,7 @@
         <f t="shared" si="12"/>
         <v>39.882</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="31">
         <f t="shared" si="11"/>
         <v>6.647</v>
       </c>
@@ -2582,7 +2576,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="31">
         <f t="shared" si="13"/>
         <v>17.706</v>
       </c>
@@ -2590,7 +2584,7 @@
         <f t="shared" si="12"/>
         <v>35.412</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="31">
         <f t="shared" si="11"/>
         <v>5.902</v>
       </c>
@@ -2623,7 +2617,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="31">
         <f t="shared" si="13"/>
         <v>19.206</v>
       </c>
@@ -2631,7 +2625,7 @@
         <f t="shared" si="12"/>
         <v>38.412</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="31">
         <f t="shared" si="11"/>
         <v>6.402</v>
       </c>
@@ -2663,7 +2657,7 @@
         <f t="shared" si="10"/>
         <v>510</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="31">
         <f t="shared" si="13"/>
         <v>45.126</v>
       </c>
@@ -2671,7 +2665,7 @@
         <f t="shared" si="12"/>
         <v>90.252</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="31">
         <f t="shared" si="11"/>
         <v>15.042</v>
       </c>
@@ -2704,7 +2698,7 @@
         <f t="shared" si="10"/>
         <v>180</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="31">
         <f t="shared" si="13"/>
         <v>21.156</v>
       </c>
@@ -2712,7 +2706,7 @@
         <f t="shared" si="12"/>
         <v>42.312</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="31">
         <f t="shared" si="11"/>
         <v>7.052</v>
       </c>
@@ -2744,7 +2738,7 @@
         <f t="shared" si="10"/>
         <v>180</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="31">
         <f t="shared" si="13"/>
         <v>19.662</v>
       </c>
@@ -2752,7 +2746,7 @@
         <f t="shared" si="12"/>
         <v>39.324</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="31">
         <f t="shared" si="11"/>
         <v>6.554</v>
       </c>
@@ -2785,7 +2779,7 @@
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="31">
         <f t="shared" si="13"/>
         <v>24.162</v>
       </c>
@@ -2793,61 +2787,64 @@
         <f t="shared" si="12"/>
         <v>48.324</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="31">
         <f t="shared" si="11"/>
         <v>8.054</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="25"/>
+      <c r="A35" s="25">
+        <v>45600</v>
+      </c>
       <c r="B35" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="25">
+        <v>18</v>
+      </c>
+      <c r="C35" s="27">
         <v>1</v>
       </c>
-      <c r="D35" s="27">
-        <f>119.85+5</f>
-        <v>124.85</v>
-      </c>
-      <c r="E35" s="28">
+      <c r="D35" s="20">
+        <v>116.56</v>
+      </c>
+      <c r="E35" s="15">
         <v>200</v>
       </c>
       <c r="F35" s="16">
         <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="24">
         <v>0</v>
       </c>
       <c r="H35" s="18">
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="31">
         <f t="shared" si="13"/>
-        <v>22.545</v>
+        <v>25.032</v>
       </c>
       <c r="J35" s="18">
         <f t="shared" si="12"/>
-        <v>45.09</v>
-      </c>
-      <c r="K35" s="33">
+        <v>50.064</v>
+      </c>
+      <c r="K35" s="31">
         <f t="shared" si="11"/>
-        <v>7.515</v>
+        <v>8.344</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="5"/>
+      <c r="A36" s="22">
+        <v>45601</v>
+      </c>
       <c r="B36" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="1">
+        <v>16</v>
+      </c>
+      <c r="C36" s="23">
         <v>1</v>
       </c>
       <c r="D36" s="20">
-        <f>105.98+5</f>
-        <v>110.98</v>
+        <f>110.26</f>
+        <v>110.26</v>
       </c>
       <c r="E36" s="15">
         <v>200</v>
@@ -2863,123 +2860,130 @@
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="31">
+        <f t="shared" si="13"/>
+        <v>26.922</v>
+      </c>
+      <c r="J36" s="18">
+        <f t="shared" si="12"/>
+        <v>53.844</v>
+      </c>
+      <c r="K36" s="31">
+        <f t="shared" si="11"/>
+        <v>8.974</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="5"/>
+      <c r="B37" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="20">
+        <f>105.98+5</f>
+        <v>110.98</v>
+      </c>
+      <c r="E37" s="15">
+        <v>200</v>
+      </c>
+      <c r="F37" s="16">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="G37" s="21">
+        <v>0</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="I37" s="31">
         <f t="shared" si="13"/>
         <v>26.706</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J37" s="18">
         <f t="shared" si="12"/>
         <v>53.412</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K37" s="31">
         <f t="shared" si="11"/>
         <v>8.902</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="20">
-        <v>114.46</v>
-      </c>
-      <c r="E37" s="15">
-        <v>200</v>
-      </c>
-      <c r="F37" s="16">
-        <f t="shared" ref="F37:F93" si="14">E37*C37</f>
-        <v>200</v>
-      </c>
-      <c r="G37" s="21">
-        <v>20</v>
-      </c>
-      <c r="H37" s="18">
-        <f t="shared" ref="H37:H61" si="15">F37-G37</f>
-        <v>180</v>
-      </c>
-      <c r="I37" s="33">
-        <f t="shared" ref="I37:I93" si="16">((F37)-(D37*C37)-G37)*0.3</f>
-        <v>19.662</v>
-      </c>
-      <c r="J37" s="18">
-        <f t="shared" ref="J37:J94" si="17">((F37)-(D37*C37)-G37)*0.6</f>
-        <v>39.324</v>
-      </c>
-      <c r="K37" s="33">
-        <f t="shared" ref="K37:K93" si="18">((F37)-(D37*C37)-G37)*0.1</f>
-        <v>6.554</v>
-      </c>
-    </row>
     <row r="38" spans="2:11">
       <c r="B38" s="13" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="20">
-        <v>104.48</v>
+        <v>114.46</v>
       </c>
       <c r="E38" s="15">
         <v>200</v>
       </c>
       <c r="F38" s="16">
+        <f t="shared" ref="F38:F94" si="14">E38*C38</f>
+        <v>200</v>
+      </c>
+      <c r="G38" s="21">
+        <v>20</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" ref="H38:H62" si="15">F38-G38</f>
+        <v>180</v>
+      </c>
+      <c r="I38" s="31">
+        <f t="shared" ref="I38:I94" si="16">((F38)-(D38*C38)-G38)*0.3</f>
+        <v>19.662</v>
+      </c>
+      <c r="J38" s="18">
+        <f t="shared" ref="J38:J95" si="17">((F38)-(D38*C38)-G38)*0.6</f>
+        <v>39.324</v>
+      </c>
+      <c r="K38" s="31">
+        <f t="shared" ref="K38:K94" si="18">((F38)-(D38*C38)-G38)*0.1</f>
+        <v>6.554</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20">
+        <v>104.48</v>
+      </c>
+      <c r="E39" s="15">
+        <v>200</v>
+      </c>
+      <c r="F39" s="16">
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G39" s="21">
         <v>20</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H39" s="18">
         <f t="shared" si="15"/>
         <v>180</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I39" s="31">
         <f t="shared" si="16"/>
         <v>22.656</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J39" s="18">
         <f t="shared" si="17"/>
         <v>45.312</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K39" s="31">
         <f t="shared" si="18"/>
         <v>7.552</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="13"/>
-      <c r="D39" s="20">
-        <v>0</v>
-      </c>
-      <c r="E39" s="15">
-        <v>0</v>
-      </c>
-      <c r="F39" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="21">
-        <v>0</v>
-      </c>
-      <c r="H39" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="18">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="33">
-        <f t="shared" si="18"/>
-        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -3001,7 +3005,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3009,7 +3013,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3033,7 +3037,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3041,7 +3045,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3065,7 +3069,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3073,7 +3077,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3097,7 +3101,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3105,7 +3109,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3129,7 +3133,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3137,7 +3141,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K44" s="33">
+      <c r="K44" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3161,7 +3165,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3169,7 +3173,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K45" s="33">
+      <c r="K45" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3193,7 +3197,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3201,7 +3205,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K46" s="33">
+      <c r="K46" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3225,7 +3229,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3233,7 +3237,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3257,7 +3261,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I48" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3265,7 +3269,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K48" s="33">
+      <c r="K48" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3289,7 +3293,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3297,7 +3301,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3321,7 +3325,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3329,7 +3333,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K50" s="33">
+      <c r="K50" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3353,7 +3357,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3361,7 +3365,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K51" s="33">
+      <c r="K51" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3385,7 +3389,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I52" s="33">
+      <c r="I52" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3393,7 +3397,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K52" s="33">
+      <c r="K52" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3417,7 +3421,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3425,7 +3429,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K53" s="33">
+      <c r="K53" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3449,7 +3453,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I54" s="33">
+      <c r="I54" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3457,7 +3461,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K54" s="33">
+      <c r="K54" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3481,7 +3485,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3489,7 +3493,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K55" s="33">
+      <c r="K55" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3513,7 +3517,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I56" s="33">
+      <c r="I56" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3521,7 +3525,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K56" s="33">
+      <c r="K56" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3545,7 +3549,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3553,7 +3557,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K57" s="33">
+      <c r="K57" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3577,7 +3581,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I58" s="33">
+      <c r="I58" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3585,7 +3589,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K58" s="33">
+      <c r="K58" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3609,7 +3613,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3617,7 +3621,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K59" s="33">
+      <c r="K59" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3641,7 +3645,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I60" s="33">
+      <c r="I60" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3649,7 +3653,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K60" s="33">
+      <c r="K60" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3673,7 +3677,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3681,7 +3685,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K61" s="33">
+      <c r="K61" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3702,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="18">
-        <f t="shared" ref="H62:H93" si="19">F62-G62</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3713,7 +3717,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K62" s="33">
+      <c r="K62" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3734,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="H63" s="18">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="33">
+        <f t="shared" ref="H63:H94" si="19">F63-G63</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3745,7 +3749,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K63" s="33">
+      <c r="K63" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3769,7 +3773,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I64" s="33">
+      <c r="I64" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3777,7 +3781,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K64" s="33">
+      <c r="K64" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3801,7 +3805,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3809,7 +3813,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K65" s="33">
+      <c r="K65" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3833,7 +3837,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I66" s="33">
+      <c r="I66" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3841,7 +3845,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K66" s="33">
+      <c r="K66" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3865,7 +3869,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I67" s="33">
+      <c r="I67" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3873,7 +3877,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K67" s="33">
+      <c r="K67" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3897,7 +3901,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I68" s="33">
+      <c r="I68" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3905,7 +3909,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K68" s="33">
+      <c r="K68" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3929,7 +3933,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I69" s="33">
+      <c r="I69" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3937,7 +3941,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K69" s="33">
+      <c r="K69" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3961,7 +3965,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I70" s="33">
+      <c r="I70" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3969,7 +3973,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K70" s="33">
+      <c r="K70" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3993,7 +3997,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I71" s="33">
+      <c r="I71" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4001,7 +4005,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K71" s="33">
+      <c r="K71" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4025,7 +4029,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I72" s="33">
+      <c r="I72" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4033,7 +4037,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K72" s="33">
+      <c r="K72" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4057,7 +4061,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I73" s="33">
+      <c r="I73" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4065,7 +4069,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K73" s="33">
+      <c r="K73" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4089,7 +4093,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I74" s="33">
+      <c r="I74" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4097,7 +4101,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K74" s="33">
+      <c r="K74" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4121,7 +4125,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I75" s="33">
+      <c r="I75" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4129,7 +4133,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K75" s="33">
+      <c r="K75" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4153,7 +4157,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I76" s="33">
+      <c r="I76" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4161,7 +4165,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K76" s="33">
+      <c r="K76" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4185,7 +4189,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I77" s="33">
+      <c r="I77" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4193,7 +4197,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K77" s="33">
+      <c r="K77" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4217,7 +4221,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I78" s="33">
+      <c r="I78" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4225,7 +4229,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K78" s="33">
+      <c r="K78" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4249,7 +4253,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I79" s="33">
+      <c r="I79" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4257,7 +4261,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K79" s="33">
+      <c r="K79" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4281,7 +4285,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I80" s="33">
+      <c r="I80" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4289,7 +4293,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K80" s="33">
+      <c r="K80" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4313,7 +4317,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I81" s="33">
+      <c r="I81" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4321,7 +4325,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K81" s="33">
+      <c r="K81" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4345,7 +4349,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I82" s="33">
+      <c r="I82" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4353,7 +4357,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K82" s="33">
+      <c r="K82" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4377,7 +4381,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I83" s="33">
+      <c r="I83" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4385,7 +4389,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K83" s="33">
+      <c r="K83" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4409,7 +4413,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I84" s="33">
+      <c r="I84" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4417,7 +4421,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K84" s="33">
+      <c r="K84" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4441,7 +4445,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I85" s="33">
+      <c r="I85" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4449,7 +4453,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K85" s="33">
+      <c r="K85" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4473,7 +4477,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I86" s="33">
+      <c r="I86" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4481,7 +4485,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K86" s="33">
+      <c r="K86" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4505,7 +4509,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I87" s="33">
+      <c r="I87" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4513,7 +4517,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K87" s="33">
+      <c r="K87" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4537,7 +4541,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I88" s="33">
+      <c r="I88" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4545,7 +4549,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K88" s="33">
+      <c r="K88" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4569,7 +4573,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I89" s="33">
+      <c r="I89" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4577,7 +4581,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K89" s="33">
+      <c r="K89" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4601,7 +4605,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I90" s="33">
+      <c r="I90" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4609,7 +4613,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K90" s="33">
+      <c r="K90" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4633,7 +4637,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I91" s="33">
+      <c r="I91" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4641,7 +4645,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K91" s="33">
+      <c r="K91" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4665,7 +4669,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I92" s="33">
+      <c r="I92" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4673,7 +4677,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K92" s="33">
+      <c r="K92" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4697,7 +4701,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I93" s="33">
+      <c r="I93" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4705,7 +4709,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K93" s="33">
+      <c r="K93" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4719,26 +4723,26 @@
         <v>0</v>
       </c>
       <c r="F94" s="16">
-        <f t="shared" ref="F94:F157" si="20">E94*C94</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G94" s="21">
         <v>0</v>
       </c>
       <c r="H94" s="18">
-        <f t="shared" ref="H94:H125" si="21">F94-G94</f>
-        <v>0</v>
-      </c>
-      <c r="I94" s="33">
-        <f t="shared" ref="I94:I157" si="22">((F94)-(D94*C94)-G94)*0.3</f>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="31">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J94" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K94" s="33">
-        <f t="shared" ref="K94:K157" si="23">((F94)-(D94*C94)-G94)*0.1</f>
+      <c r="K94" s="31">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4751,26 +4755,26 @@
         <v>0</v>
       </c>
       <c r="F95" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="F95:F158" si="20">E95*C95</f>
         <v>0</v>
       </c>
       <c r="G95" s="21">
         <v>0</v>
       </c>
       <c r="H95" s="18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="H95:H126" si="21">F95-G95</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="31">
+        <f t="shared" ref="I95:I158" si="22">((F95)-(D95*C95)-G95)*0.3</f>
         <v>0</v>
       </c>
       <c r="J95" s="18">
-        <f t="shared" ref="J95:J158" si="24">((F95)-(D95*C95)-G95)*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="K95" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="31">
+        <f t="shared" ref="K95:K158" si="23">((F95)-(D95*C95)-G95)*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -4793,15 +4797,15 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I96" s="33">
+      <c r="I96" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J96" s="18">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="33">
+        <f t="shared" ref="J96:J159" si="24">((F96)-(D96*C96)-G96)*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4825,7 +4829,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I97" s="33">
+      <c r="I97" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4833,7 +4837,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K97" s="33">
+      <c r="K97" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4857,7 +4861,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I98" s="33">
+      <c r="I98" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4865,7 +4869,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K98" s="33">
+      <c r="K98" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4889,7 +4893,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I99" s="33">
+      <c r="I99" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4897,7 +4901,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K99" s="33">
+      <c r="K99" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4921,7 +4925,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I100" s="33">
+      <c r="I100" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4929,7 +4933,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K100" s="33">
+      <c r="K100" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4953,7 +4957,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I101" s="33">
+      <c r="I101" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4961,7 +4965,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K101" s="33">
+      <c r="K101" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4985,7 +4989,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I102" s="33">
+      <c r="I102" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4993,7 +4997,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K102" s="33">
+      <c r="K102" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5017,7 +5021,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I103" s="33">
+      <c r="I103" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5025,7 +5029,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K103" s="33">
+      <c r="K103" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5049,7 +5053,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I104" s="33">
+      <c r="I104" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5057,7 +5061,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K104" s="33">
+      <c r="K104" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5081,7 +5085,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I105" s="33">
+      <c r="I105" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5089,7 +5093,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K105" s="33">
+      <c r="K105" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5113,7 +5117,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I106" s="33">
+      <c r="I106" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5121,7 +5125,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K106" s="33">
+      <c r="K106" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5145,7 +5149,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I107" s="33">
+      <c r="I107" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5153,7 +5157,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K107" s="33">
+      <c r="K107" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5177,7 +5181,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I108" s="33">
+      <c r="I108" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5185,7 +5189,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K108" s="33">
+      <c r="K108" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5209,7 +5213,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I109" s="33">
+      <c r="I109" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5217,7 +5221,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K109" s="33">
+      <c r="K109" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5241,7 +5245,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I110" s="33">
+      <c r="I110" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5249,7 +5253,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K110" s="33">
+      <c r="K110" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5273,7 +5277,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I111" s="33">
+      <c r="I111" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5281,7 +5285,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K111" s="33">
+      <c r="K111" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5305,7 +5309,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I112" s="33">
+      <c r="I112" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5313,7 +5317,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K112" s="33">
+      <c r="K112" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5337,7 +5341,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I113" s="33">
+      <c r="I113" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5345,7 +5349,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K113" s="33">
+      <c r="K113" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5369,7 +5373,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I114" s="33">
+      <c r="I114" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5377,7 +5381,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K114" s="33">
+      <c r="K114" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5401,7 +5405,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I115" s="33">
+      <c r="I115" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5409,7 +5413,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K115" s="33">
+      <c r="K115" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5433,7 +5437,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I116" s="33">
+      <c r="I116" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5441,7 +5445,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K116" s="33">
+      <c r="K116" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5465,7 +5469,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I117" s="33">
+      <c r="I117" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5473,7 +5477,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K117" s="33">
+      <c r="K117" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5497,7 +5501,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I118" s="33">
+      <c r="I118" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5505,7 +5509,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K118" s="33">
+      <c r="K118" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5529,7 +5533,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I119" s="33">
+      <c r="I119" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5537,7 +5541,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K119" s="33">
+      <c r="K119" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5561,7 +5565,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I120" s="33">
+      <c r="I120" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5569,7 +5573,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K120" s="33">
+      <c r="K120" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5593,7 +5597,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I121" s="33">
+      <c r="I121" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5601,7 +5605,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K121" s="33">
+      <c r="K121" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5625,7 +5629,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I122" s="33">
+      <c r="I122" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5633,7 +5637,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K122" s="33">
+      <c r="K122" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5657,7 +5661,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I123" s="33">
+      <c r="I123" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5665,7 +5669,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K123" s="33">
+      <c r="K123" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5689,7 +5693,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I124" s="33">
+      <c r="I124" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5697,7 +5701,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K124" s="33">
+      <c r="K124" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5721,7 +5725,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I125" s="33">
+      <c r="I125" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5729,7 +5733,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K125" s="33">
+      <c r="K125" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5750,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="H126" s="18">
-        <f t="shared" ref="H126:H157" si="25">F126-G126</f>
-        <v>0</v>
-      </c>
-      <c r="I126" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5761,7 +5765,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K126" s="33">
+      <c r="K126" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5782,10 +5786,10 @@
         <v>0</v>
       </c>
       <c r="H127" s="18">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I127" s="33">
+        <f t="shared" ref="H127:H158" si="25">F127-G127</f>
+        <v>0</v>
+      </c>
+      <c r="I127" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5793,7 +5797,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K127" s="33">
+      <c r="K127" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5817,7 +5821,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I128" s="33">
+      <c r="I128" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5825,7 +5829,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K128" s="33">
+      <c r="K128" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5849,7 +5853,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I129" s="33">
+      <c r="I129" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5857,7 +5861,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K129" s="33">
+      <c r="K129" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5881,7 +5885,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I130" s="33">
+      <c r="I130" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5889,7 +5893,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K130" s="33">
+      <c r="K130" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5913,7 +5917,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I131" s="33">
+      <c r="I131" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5921,7 +5925,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K131" s="33">
+      <c r="K131" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5945,7 +5949,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I132" s="33">
+      <c r="I132" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5953,7 +5957,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K132" s="33">
+      <c r="K132" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5977,7 +5981,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I133" s="33">
+      <c r="I133" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5985,7 +5989,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K133" s="33">
+      <c r="K133" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6009,7 +6013,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I134" s="33">
+      <c r="I134" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6017,7 +6021,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K134" s="33">
+      <c r="K134" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6041,7 +6045,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I135" s="33">
+      <c r="I135" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6049,7 +6053,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K135" s="33">
+      <c r="K135" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6073,7 +6077,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I136" s="33">
+      <c r="I136" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6081,7 +6085,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K136" s="33">
+      <c r="K136" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6105,7 +6109,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I137" s="33">
+      <c r="I137" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6113,7 +6117,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K137" s="33">
+      <c r="K137" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6137,7 +6141,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I138" s="33">
+      <c r="I138" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6145,7 +6149,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K138" s="33">
+      <c r="K138" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6169,7 +6173,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I139" s="33">
+      <c r="I139" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6177,7 +6181,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K139" s="33">
+      <c r="K139" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6201,7 +6205,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I140" s="33">
+      <c r="I140" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6209,7 +6213,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K140" s="33">
+      <c r="K140" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6233,7 +6237,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I141" s="33">
+      <c r="I141" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6241,7 +6245,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K141" s="33">
+      <c r="K141" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6265,7 +6269,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I142" s="33">
+      <c r="I142" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6273,7 +6277,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K142" s="33">
+      <c r="K142" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6297,7 +6301,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I143" s="33">
+      <c r="I143" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6305,7 +6309,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K143" s="33">
+      <c r="K143" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6329,7 +6333,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I144" s="33">
+      <c r="I144" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6337,7 +6341,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K144" s="33">
+      <c r="K144" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6361,7 +6365,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I145" s="33">
+      <c r="I145" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6369,7 +6373,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K145" s="33">
+      <c r="K145" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6393,7 +6397,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I146" s="33">
+      <c r="I146" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6401,7 +6405,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K146" s="33">
+      <c r="K146" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6425,7 +6429,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I147" s="33">
+      <c r="I147" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6433,7 +6437,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K147" s="33">
+      <c r="K147" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6457,7 +6461,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I148" s="33">
+      <c r="I148" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6465,7 +6469,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K148" s="33">
+      <c r="K148" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6489,7 +6493,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I149" s="33">
+      <c r="I149" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6497,7 +6501,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K149" s="33">
+      <c r="K149" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6521,7 +6525,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I150" s="33">
+      <c r="I150" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6529,7 +6533,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K150" s="33">
+      <c r="K150" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6553,7 +6557,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I151" s="33">
+      <c r="I151" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6561,7 +6565,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K151" s="33">
+      <c r="K151" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6585,7 +6589,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I152" s="33">
+      <c r="I152" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6593,7 +6597,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K152" s="33">
+      <c r="K152" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6617,7 +6621,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I153" s="33">
+      <c r="I153" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6625,7 +6629,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K153" s="33">
+      <c r="K153" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6649,7 +6653,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I154" s="33">
+      <c r="I154" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6657,7 +6661,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K154" s="33">
+      <c r="K154" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6681,7 +6685,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I155" s="33">
+      <c r="I155" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6689,7 +6693,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K155" s="33">
+      <c r="K155" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6713,7 +6717,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I156" s="33">
+      <c r="I156" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6721,7 +6725,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K156" s="33">
+      <c r="K156" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6745,7 +6749,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I157" s="33">
+      <c r="I157" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6753,12 +6757,13 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K157" s="33">
+      <c r="K157" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="4:11">
+    <row r="158" spans="2:11">
+      <c r="B158" s="13"/>
       <c r="D158" s="20">
         <v>0</v>
       </c>
@@ -6766,26 +6771,26 @@
         <v>0</v>
       </c>
       <c r="F158" s="16">
-        <f t="shared" ref="F158:F221" si="26">E158*C158</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G158" s="21">
         <v>0</v>
       </c>
       <c r="H158" s="18">
-        <f t="shared" ref="H158:H179" si="27">F158-G158</f>
-        <v>0</v>
-      </c>
-      <c r="I158" s="33">
-        <f t="shared" ref="I158:I221" si="28">((F158)-(D158*C158)-G158)*0.3</f>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I158" s="31">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J158" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K158" s="33">
-        <f t="shared" ref="K158:K221" si="29">((F158)-(D158*C158)-G158)*0.1</f>
+      <c r="K158" s="31">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6797,26 +6802,26 @@
         <v>0</v>
       </c>
       <c r="F159" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="F159:F222" si="26">E159*C159</f>
         <v>0</v>
       </c>
       <c r="G159" s="21">
         <v>0</v>
       </c>
       <c r="H159" s="18">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I159" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="H159:H180" si="27">F159-G159</f>
+        <v>0</v>
+      </c>
+      <c r="I159" s="31">
+        <f t="shared" ref="I159:I222" si="28">((F159)-(D159*C159)-G159)*0.3</f>
         <v>0</v>
       </c>
       <c r="J159" s="18">
-        <f t="shared" ref="J159:J222" si="30">((F159)-(D159*C159)-G159)*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="K159" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K159" s="31">
+        <f t="shared" ref="K159:K222" si="29">((F159)-(D159*C159)-G159)*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -6838,15 +6843,15 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I160" s="33">
+      <c r="I160" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J160" s="18">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K160" s="33">
+        <f t="shared" ref="J160:J223" si="30">((F160)-(D160*C160)-G160)*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="K160" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -6869,7 +6874,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I161" s="33">
+      <c r="I161" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -6877,7 +6882,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K161" s="33">
+      <c r="K161" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -6900,7 +6905,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I162" s="33">
+      <c r="I162" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -6908,7 +6913,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K162" s="33">
+      <c r="K162" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -6931,7 +6936,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I163" s="33">
+      <c r="I163" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -6939,7 +6944,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K163" s="33">
+      <c r="K163" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -6962,7 +6967,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I164" s="33">
+      <c r="I164" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -6970,7 +6975,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K164" s="33">
+      <c r="K164" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -6993,7 +6998,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I165" s="33">
+      <c r="I165" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7001,7 +7006,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K165" s="33">
+      <c r="K165" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7024,7 +7029,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I166" s="33">
+      <c r="I166" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7032,7 +7037,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K166" s="33">
+      <c r="K166" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7055,7 +7060,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I167" s="33">
+      <c r="I167" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7063,7 +7068,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K167" s="33">
+      <c r="K167" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7086,7 +7091,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I168" s="33">
+      <c r="I168" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7094,7 +7099,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K168" s="33">
+      <c r="K168" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7117,7 +7122,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I169" s="33">
+      <c r="I169" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7125,7 +7130,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K169" s="33">
+      <c r="K169" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7148,7 +7153,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I170" s="33">
+      <c r="I170" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7156,7 +7161,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K170" s="33">
+      <c r="K170" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7179,7 +7184,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I171" s="33">
+      <c r="I171" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7187,7 +7192,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K171" s="33">
+      <c r="K171" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7210,7 +7215,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I172" s="33">
+      <c r="I172" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7218,7 +7223,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K172" s="33">
+      <c r="K172" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7241,7 +7246,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I173" s="33">
+      <c r="I173" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7249,7 +7254,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K173" s="33">
+      <c r="K173" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7272,7 +7277,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I174" s="33">
+      <c r="I174" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7280,7 +7285,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K174" s="33">
+      <c r="K174" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7303,7 +7308,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I175" s="33">
+      <c r="I175" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7311,7 +7316,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K175" s="33">
+      <c r="K175" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7334,7 +7339,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I176" s="33">
+      <c r="I176" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7342,7 +7347,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K176" s="33">
+      <c r="K176" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7365,7 +7370,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I177" s="33">
+      <c r="I177" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7373,7 +7378,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K177" s="33">
+      <c r="K177" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7396,7 +7401,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I178" s="33">
+      <c r="I178" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7404,7 +7409,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K178" s="33">
+      <c r="K178" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7427,7 +7432,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I179" s="33">
+      <c r="I179" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7435,7 +7440,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K179" s="33">
+      <c r="K179" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7454,7 +7459,11 @@
       <c r="G180" s="21">
         <v>0</v>
       </c>
-      <c r="I180" s="33">
+      <c r="H180" s="18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I180" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7462,7 +7471,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K180" s="33">
+      <c r="K180" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7481,7 +7490,7 @@
       <c r="G181" s="21">
         <v>0</v>
       </c>
-      <c r="I181" s="33">
+      <c r="I181" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7489,7 +7498,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K181" s="33">
+      <c r="K181" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7508,7 +7517,7 @@
       <c r="G182" s="21">
         <v>0</v>
       </c>
-      <c r="I182" s="33">
+      <c r="I182" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7516,7 +7525,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K182" s="33">
+      <c r="K182" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7535,7 +7544,7 @@
       <c r="G183" s="21">
         <v>0</v>
       </c>
-      <c r="I183" s="33">
+      <c r="I183" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7543,7 +7552,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K183" s="33">
+      <c r="K183" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7562,7 +7571,7 @@
       <c r="G184" s="21">
         <v>0</v>
       </c>
-      <c r="I184" s="33">
+      <c r="I184" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7570,7 +7579,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K184" s="33">
+      <c r="K184" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7589,7 +7598,7 @@
       <c r="G185" s="21">
         <v>0</v>
       </c>
-      <c r="I185" s="33">
+      <c r="I185" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7597,7 +7606,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K185" s="33">
+      <c r="K185" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7616,7 +7625,7 @@
       <c r="G186" s="21">
         <v>0</v>
       </c>
-      <c r="I186" s="33">
+      <c r="I186" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7624,7 +7633,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K186" s="33">
+      <c r="K186" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7643,7 +7652,7 @@
       <c r="G187" s="21">
         <v>0</v>
       </c>
-      <c r="I187" s="33">
+      <c r="I187" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7651,7 +7660,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K187" s="33">
+      <c r="K187" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7670,7 +7679,7 @@
       <c r="G188" s="21">
         <v>0</v>
       </c>
-      <c r="I188" s="33">
+      <c r="I188" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7678,7 +7687,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K188" s="33">
+      <c r="K188" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7697,7 +7706,7 @@
       <c r="G189" s="21">
         <v>0</v>
       </c>
-      <c r="I189" s="33">
+      <c r="I189" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7705,7 +7714,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K189" s="33">
+      <c r="K189" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7724,7 +7733,7 @@
       <c r="G190" s="21">
         <v>0</v>
       </c>
-      <c r="I190" s="33">
+      <c r="I190" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7732,7 +7741,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K190" s="33">
+      <c r="K190" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7751,7 +7760,7 @@
       <c r="G191" s="21">
         <v>0</v>
       </c>
-      <c r="I191" s="33">
+      <c r="I191" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7759,7 +7768,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K191" s="33">
+      <c r="K191" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7778,7 +7787,7 @@
       <c r="G192" s="21">
         <v>0</v>
       </c>
-      <c r="I192" s="33">
+      <c r="I192" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7786,7 +7795,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K192" s="33">
+      <c r="K192" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7805,7 +7814,7 @@
       <c r="G193" s="21">
         <v>0</v>
       </c>
-      <c r="I193" s="33">
+      <c r="I193" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7813,7 +7822,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K193" s="33">
+      <c r="K193" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7832,7 +7841,7 @@
       <c r="G194" s="21">
         <v>0</v>
       </c>
-      <c r="I194" s="33">
+      <c r="I194" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7840,7 +7849,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K194" s="33">
+      <c r="K194" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7859,7 +7868,7 @@
       <c r="G195" s="21">
         <v>0</v>
       </c>
-      <c r="I195" s="33">
+      <c r="I195" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7867,7 +7876,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K195" s="33">
+      <c r="K195" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7886,7 +7895,7 @@
       <c r="G196" s="21">
         <v>0</v>
       </c>
-      <c r="I196" s="33">
+      <c r="I196" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7894,7 +7903,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K196" s="33">
+      <c r="K196" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7913,7 +7922,7 @@
       <c r="G197" s="21">
         <v>0</v>
       </c>
-      <c r="I197" s="33">
+      <c r="I197" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7921,7 +7930,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K197" s="33">
+      <c r="K197" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7940,7 +7949,7 @@
       <c r="G198" s="21">
         <v>0</v>
       </c>
-      <c r="I198" s="33">
+      <c r="I198" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7948,7 +7957,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K198" s="33">
+      <c r="K198" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7967,7 +7976,7 @@
       <c r="G199" s="21">
         <v>0</v>
       </c>
-      <c r="I199" s="33">
+      <c r="I199" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7975,7 +7984,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K199" s="33">
+      <c r="K199" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7994,7 +8003,7 @@
       <c r="G200" s="21">
         <v>0</v>
       </c>
-      <c r="I200" s="33">
+      <c r="I200" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8002,7 +8011,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K200" s="33">
+      <c r="K200" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8021,7 +8030,7 @@
       <c r="G201" s="21">
         <v>0</v>
       </c>
-      <c r="I201" s="33">
+      <c r="I201" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8029,7 +8038,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K201" s="33">
+      <c r="K201" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8048,7 +8057,7 @@
       <c r="G202" s="21">
         <v>0</v>
       </c>
-      <c r="I202" s="33">
+      <c r="I202" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8056,7 +8065,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K202" s="33">
+      <c r="K202" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8075,7 +8084,7 @@
       <c r="G203" s="21">
         <v>0</v>
       </c>
-      <c r="I203" s="33">
+      <c r="I203" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8083,7 +8092,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K203" s="33">
+      <c r="K203" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8102,7 +8111,7 @@
       <c r="G204" s="21">
         <v>0</v>
       </c>
-      <c r="I204" s="33">
+      <c r="I204" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8110,7 +8119,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K204" s="33">
+      <c r="K204" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8129,7 +8138,7 @@
       <c r="G205" s="21">
         <v>0</v>
       </c>
-      <c r="I205" s="33">
+      <c r="I205" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8137,7 +8146,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K205" s="33">
+      <c r="K205" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8156,7 +8165,7 @@
       <c r="G206" s="21">
         <v>0</v>
       </c>
-      <c r="I206" s="33">
+      <c r="I206" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8164,7 +8173,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K206" s="33">
+      <c r="K206" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8183,7 +8192,7 @@
       <c r="G207" s="21">
         <v>0</v>
       </c>
-      <c r="I207" s="33">
+      <c r="I207" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8191,7 +8200,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K207" s="33">
+      <c r="K207" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8210,7 +8219,7 @@
       <c r="G208" s="21">
         <v>0</v>
       </c>
-      <c r="I208" s="33">
+      <c r="I208" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8218,7 +8227,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K208" s="33">
+      <c r="K208" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8237,7 +8246,7 @@
       <c r="G209" s="21">
         <v>0</v>
       </c>
-      <c r="I209" s="33">
+      <c r="I209" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8245,7 +8254,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K209" s="33">
+      <c r="K209" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8264,7 +8273,7 @@
       <c r="G210" s="21">
         <v>0</v>
       </c>
-      <c r="I210" s="33">
+      <c r="I210" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8272,7 +8281,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K210" s="33">
+      <c r="K210" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8291,7 +8300,7 @@
       <c r="G211" s="21">
         <v>0</v>
       </c>
-      <c r="I211" s="33">
+      <c r="I211" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8299,7 +8308,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K211" s="33">
+      <c r="K211" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8318,7 +8327,7 @@
       <c r="G212" s="21">
         <v>0</v>
       </c>
-      <c r="I212" s="33">
+      <c r="I212" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8326,7 +8335,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K212" s="33">
+      <c r="K212" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8345,7 +8354,7 @@
       <c r="G213" s="21">
         <v>0</v>
       </c>
-      <c r="I213" s="33">
+      <c r="I213" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8353,7 +8362,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K213" s="33">
+      <c r="K213" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8372,7 +8381,7 @@
       <c r="G214" s="21">
         <v>0</v>
       </c>
-      <c r="I214" s="33">
+      <c r="I214" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8380,7 +8389,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K214" s="33">
+      <c r="K214" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8399,7 +8408,7 @@
       <c r="G215" s="21">
         <v>0</v>
       </c>
-      <c r="I215" s="33">
+      <c r="I215" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8407,7 +8416,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K215" s="33">
+      <c r="K215" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8426,7 +8435,7 @@
       <c r="G216" s="21">
         <v>0</v>
       </c>
-      <c r="I216" s="33">
+      <c r="I216" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8434,7 +8443,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K216" s="33">
+      <c r="K216" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8453,7 +8462,7 @@
       <c r="G217" s="21">
         <v>0</v>
       </c>
-      <c r="I217" s="33">
+      <c r="I217" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8461,7 +8470,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K217" s="33">
+      <c r="K217" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8480,7 +8489,7 @@
       <c r="G218" s="21">
         <v>0</v>
       </c>
-      <c r="I218" s="33">
+      <c r="I218" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8488,7 +8497,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K218" s="33">
+      <c r="K218" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8507,7 +8516,7 @@
       <c r="G219" s="21">
         <v>0</v>
       </c>
-      <c r="I219" s="33">
+      <c r="I219" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8515,7 +8524,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K219" s="33">
+      <c r="K219" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8534,7 +8543,7 @@
       <c r="G220" s="21">
         <v>0</v>
       </c>
-      <c r="I220" s="33">
+      <c r="I220" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8542,7 +8551,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K220" s="33">
+      <c r="K220" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8561,7 +8570,7 @@
       <c r="G221" s="21">
         <v>0</v>
       </c>
-      <c r="I221" s="33">
+      <c r="I221" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8569,7 +8578,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K221" s="33">
+      <c r="K221" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8582,22 +8591,22 @@
         <v>0</v>
       </c>
       <c r="F222" s="16">
-        <f t="shared" ref="F222:F239" si="31">E222*C222</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G222" s="21">
         <v>0</v>
       </c>
-      <c r="I222" s="33">
-        <f t="shared" ref="I222:I266" si="32">((F222)-(D222*C222)-G222)*0.3</f>
+      <c r="I222" s="31">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J222" s="18">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K222" s="33">
-        <f t="shared" ref="K222:K285" si="33">((F222)-(D222*C222)-G222)*0.1</f>
+      <c r="K222" s="31">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -8609,22 +8618,22 @@
         <v>0</v>
       </c>
       <c r="F223" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="F223:F240" si="31">E223*C223</f>
         <v>0</v>
       </c>
       <c r="G223" s="21">
         <v>0</v>
       </c>
-      <c r="I223" s="33">
-        <f t="shared" si="32"/>
+      <c r="I223" s="31">
+        <f t="shared" ref="I223:I267" si="32">((F223)-(D223*C223)-G223)*0.3</f>
         <v>0</v>
       </c>
       <c r="J223" s="18">
-        <f t="shared" ref="J223:J286" si="34">((F223)-(D223*C223)-G223)*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="K223" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K223" s="31">
+        <f t="shared" ref="K223:K286" si="33">((F223)-(D223*C223)-G223)*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -8642,15 +8651,15 @@
       <c r="G224" s="21">
         <v>0</v>
       </c>
-      <c r="I224" s="33">
+      <c r="I224" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J224" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="K224" s="33">
+        <f t="shared" ref="J224:J287" si="34">((F224)-(D224*C224)-G224)*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="K224" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8669,7 +8678,7 @@
       <c r="G225" s="21">
         <v>0</v>
       </c>
-      <c r="I225" s="33">
+      <c r="I225" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8677,7 +8686,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K225" s="33">
+      <c r="K225" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8696,7 +8705,7 @@
       <c r="G226" s="21">
         <v>0</v>
       </c>
-      <c r="I226" s="33">
+      <c r="I226" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8704,7 +8713,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K226" s="33">
+      <c r="K226" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8723,7 +8732,7 @@
       <c r="G227" s="21">
         <v>0</v>
       </c>
-      <c r="I227" s="33">
+      <c r="I227" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8731,7 +8740,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K227" s="33">
+      <c r="K227" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8750,7 +8759,7 @@
       <c r="G228" s="21">
         <v>0</v>
       </c>
-      <c r="I228" s="33">
+      <c r="I228" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8758,7 +8767,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K228" s="33">
+      <c r="K228" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8777,7 +8786,7 @@
       <c r="G229" s="21">
         <v>0</v>
       </c>
-      <c r="I229" s="33">
+      <c r="I229" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8785,7 +8794,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K229" s="33">
+      <c r="K229" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8804,7 +8813,7 @@
       <c r="G230" s="21">
         <v>0</v>
       </c>
-      <c r="I230" s="33">
+      <c r="I230" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8812,7 +8821,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K230" s="33">
+      <c r="K230" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8831,7 +8840,7 @@
       <c r="G231" s="21">
         <v>0</v>
       </c>
-      <c r="I231" s="33">
+      <c r="I231" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8839,7 +8848,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K231" s="33">
+      <c r="K231" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8858,7 +8867,7 @@
       <c r="G232" s="21">
         <v>0</v>
       </c>
-      <c r="I232" s="33">
+      <c r="I232" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8866,7 +8875,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K232" s="33">
+      <c r="K232" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8885,7 +8894,7 @@
       <c r="G233" s="21">
         <v>0</v>
       </c>
-      <c r="I233" s="33">
+      <c r="I233" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8893,7 +8902,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K233" s="33">
+      <c r="K233" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8912,7 +8921,7 @@
       <c r="G234" s="21">
         <v>0</v>
       </c>
-      <c r="I234" s="33">
+      <c r="I234" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8920,7 +8929,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K234" s="33">
+      <c r="K234" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8939,7 +8948,7 @@
       <c r="G235" s="21">
         <v>0</v>
       </c>
-      <c r="I235" s="33">
+      <c r="I235" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8947,7 +8956,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K235" s="33">
+      <c r="K235" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8966,7 +8975,7 @@
       <c r="G236" s="21">
         <v>0</v>
       </c>
-      <c r="I236" s="33">
+      <c r="I236" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8974,7 +8983,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K236" s="33">
+      <c r="K236" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8993,7 +9002,7 @@
       <c r="G237" s="21">
         <v>0</v>
       </c>
-      <c r="I237" s="33">
+      <c r="I237" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9001,7 +9010,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K237" s="33">
+      <c r="K237" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9020,7 +9029,7 @@
       <c r="G238" s="21">
         <v>0</v>
       </c>
-      <c r="I238" s="33">
+      <c r="I238" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9028,7 +9037,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K238" s="33">
+      <c r="K238" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9037,6 +9046,9 @@
       <c r="D239" s="20">
         <v>0</v>
       </c>
+      <c r="E239" s="15">
+        <v>0</v>
+      </c>
       <c r="F239" s="16">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9044,7 +9056,7 @@
       <c r="G239" s="21">
         <v>0</v>
       </c>
-      <c r="I239" s="33">
+      <c r="I239" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9052,7 +9064,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K239" s="33">
+      <c r="K239" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9061,10 +9073,14 @@
       <c r="D240" s="20">
         <v>0</v>
       </c>
+      <c r="F240" s="16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="G240" s="21">
         <v>0</v>
       </c>
-      <c r="I240" s="33">
+      <c r="I240" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9072,7 +9088,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K240" s="33">
+      <c r="K240" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9084,7 +9100,7 @@
       <c r="G241" s="21">
         <v>0</v>
       </c>
-      <c r="I241" s="33">
+      <c r="I241" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9092,7 +9108,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K241" s="33">
+      <c r="K241" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9104,7 +9120,7 @@
       <c r="G242" s="21">
         <v>0</v>
       </c>
-      <c r="I242" s="33">
+      <c r="I242" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9112,7 +9128,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K242" s="33">
+      <c r="K242" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9124,7 +9140,7 @@
       <c r="G243" s="21">
         <v>0</v>
       </c>
-      <c r="I243" s="33">
+      <c r="I243" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9132,7 +9148,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K243" s="33">
+      <c r="K243" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9144,7 +9160,7 @@
       <c r="G244" s="21">
         <v>0</v>
       </c>
-      <c r="I244" s="33">
+      <c r="I244" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9152,7 +9168,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K244" s="33">
+      <c r="K244" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9164,7 +9180,7 @@
       <c r="G245" s="21">
         <v>0</v>
       </c>
-      <c r="I245" s="33">
+      <c r="I245" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9172,7 +9188,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K245" s="33">
+      <c r="K245" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9184,7 +9200,7 @@
       <c r="G246" s="21">
         <v>0</v>
       </c>
-      <c r="I246" s="33">
+      <c r="I246" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9192,7 +9208,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K246" s="33">
+      <c r="K246" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9204,7 +9220,7 @@
       <c r="G247" s="21">
         <v>0</v>
       </c>
-      <c r="I247" s="33">
+      <c r="I247" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9212,7 +9228,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K247" s="33">
+      <c r="K247" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9224,7 +9240,7 @@
       <c r="G248" s="21">
         <v>0</v>
       </c>
-      <c r="I248" s="33">
+      <c r="I248" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9232,7 +9248,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K248" s="33">
+      <c r="K248" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9244,7 +9260,7 @@
       <c r="G249" s="21">
         <v>0</v>
       </c>
-      <c r="I249" s="33">
+      <c r="I249" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9252,7 +9268,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K249" s="33">
+      <c r="K249" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9264,7 +9280,7 @@
       <c r="G250" s="21">
         <v>0</v>
       </c>
-      <c r="I250" s="33">
+      <c r="I250" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9272,7 +9288,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K250" s="33">
+      <c r="K250" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9284,7 +9300,7 @@
       <c r="G251" s="21">
         <v>0</v>
       </c>
-      <c r="I251" s="33">
+      <c r="I251" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9292,7 +9308,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K251" s="33">
+      <c r="K251" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9304,7 +9320,7 @@
       <c r="G252" s="21">
         <v>0</v>
       </c>
-      <c r="I252" s="33">
+      <c r="I252" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9312,7 +9328,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K252" s="33">
+      <c r="K252" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9324,7 +9340,7 @@
       <c r="G253" s="21">
         <v>0</v>
       </c>
-      <c r="I253" s="33">
+      <c r="I253" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9332,7 +9348,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K253" s="33">
+      <c r="K253" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9344,7 +9360,7 @@
       <c r="G254" s="21">
         <v>0</v>
       </c>
-      <c r="I254" s="33">
+      <c r="I254" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9352,7 +9368,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K254" s="33">
+      <c r="K254" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9364,7 +9380,7 @@
       <c r="G255" s="21">
         <v>0</v>
       </c>
-      <c r="I255" s="33">
+      <c r="I255" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9372,7 +9388,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K255" s="33">
+      <c r="K255" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9384,7 +9400,7 @@
       <c r="G256" s="21">
         <v>0</v>
       </c>
-      <c r="I256" s="33">
+      <c r="I256" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9392,7 +9408,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K256" s="33">
+      <c r="K256" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9404,7 +9420,7 @@
       <c r="G257" s="21">
         <v>0</v>
       </c>
-      <c r="I257" s="33">
+      <c r="I257" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9412,7 +9428,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K257" s="33">
+      <c r="K257" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9424,7 +9440,7 @@
       <c r="G258" s="21">
         <v>0</v>
       </c>
-      <c r="I258" s="33">
+      <c r="I258" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9432,7 +9448,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K258" s="33">
+      <c r="K258" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9444,7 +9460,7 @@
       <c r="G259" s="21">
         <v>0</v>
       </c>
-      <c r="I259" s="33">
+      <c r="I259" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9452,7 +9468,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K259" s="33">
+      <c r="K259" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9464,7 +9480,7 @@
       <c r="G260" s="21">
         <v>0</v>
       </c>
-      <c r="I260" s="33">
+      <c r="I260" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9472,7 +9488,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K260" s="33">
+      <c r="K260" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9484,7 +9500,7 @@
       <c r="G261" s="21">
         <v>0</v>
       </c>
-      <c r="I261" s="33">
+      <c r="I261" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9492,7 +9508,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K261" s="33">
+      <c r="K261" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9504,7 +9520,7 @@
       <c r="G262" s="21">
         <v>0</v>
       </c>
-      <c r="I262" s="33">
+      <c r="I262" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9512,7 +9528,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K262" s="33">
+      <c r="K262" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9524,7 +9540,7 @@
       <c r="G263" s="21">
         <v>0</v>
       </c>
-      <c r="I263" s="33">
+      <c r="I263" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9532,7 +9548,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K263" s="33">
+      <c r="K263" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9544,7 +9560,7 @@
       <c r="G264" s="21">
         <v>0</v>
       </c>
-      <c r="I264" s="33">
+      <c r="I264" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9552,7 +9568,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K264" s="33">
+      <c r="K264" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9564,7 +9580,7 @@
       <c r="G265" s="21">
         <v>0</v>
       </c>
-      <c r="I265" s="33">
+      <c r="I265" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9572,7 +9588,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K265" s="33">
+      <c r="K265" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9584,7 +9600,7 @@
       <c r="G266" s="21">
         <v>0</v>
       </c>
-      <c r="I266" s="33">
+      <c r="I266" s="31">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9592,7 +9608,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K266" s="33">
+      <c r="K266" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9604,11 +9620,15 @@
       <c r="G267" s="21">
         <v>0</v>
       </c>
+      <c r="I267" s="31">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
       <c r="J267" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K267" s="33">
+      <c r="K267" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9624,7 +9644,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K268" s="33">
+      <c r="K268" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9633,11 +9653,14 @@
       <c r="D269" s="20">
         <v>0</v>
       </c>
+      <c r="G269" s="21">
+        <v>0</v>
+      </c>
       <c r="J269" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K269" s="33">
+      <c r="K269" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9650,7 +9673,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K270" s="33">
+      <c r="K270" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9663,7 +9686,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K271" s="33">
+      <c r="K271" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9676,7 +9699,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K272" s="33">
+      <c r="K272" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9689,7 +9712,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K273" s="33">
+      <c r="K273" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9702,7 +9725,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K274" s="33">
+      <c r="K274" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9715,7 +9738,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K275" s="33">
+      <c r="K275" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9728,7 +9751,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K276" s="33">
+      <c r="K276" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9741,7 +9764,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K277" s="33">
+      <c r="K277" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9754,7 +9777,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K278" s="33">
+      <c r="K278" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9767,7 +9790,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K279" s="33">
+      <c r="K279" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9780,7 +9803,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K280" s="33">
+      <c r="K280" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9793,7 +9816,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K281" s="33">
+      <c r="K281" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9806,17 +9829,20 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K282" s="33">
+      <c r="K282" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="10:11">
+    <row r="283" spans="4:11">
+      <c r="D283" s="20">
+        <v>0</v>
+      </c>
       <c r="J283" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K283" s="33">
+      <c r="K283" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9826,7 +9852,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K284" s="33">
+      <c r="K284" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9836,7 +9862,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K285" s="33">
+      <c r="K285" s="31">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9846,34 +9872,38 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K286" s="33">
-        <f>((F286)-(D286*C286)-G286)*0.1</f>
+      <c r="K286" s="31">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="10:11">
       <c r="J287" s="18">
-        <f t="shared" ref="J287:J318" si="35">((F287)-(D287*C287)-G287)*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="K287" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K287" s="31">
         <f>((F287)-(D287*C287)-G287)*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="10:11">
       <c r="J288" s="18">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="K288" s="33">
+        <f t="shared" ref="J288:J319" si="35">((F288)-(D288*C288)-G288)*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="K288" s="31">
         <f>((F288)-(D288*C288)-G288)*0.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="10:10">
+    <row r="289" spans="10:11">
       <c r="J289" s="18">
         <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K289" s="31">
+        <f>((F289)-(D289*C289)-G289)*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -10051,9 +10081,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="319" spans="10:10">
+      <c r="J319" s="18">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B157">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B158">
       <formula1>"Anti-sober,Arctic Materia,Glittersphere,Lotus Drift,Lumberfizz,Noble Aplomb,Pearanil Wisp,Sentir Le Creme,Shadow Orchids,Snow Crystal Gust,The Contained,The Unchained,Windsparks"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10067,7 +10103,7 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Purchase Records.xlsx
+++ b/Purchase Records.xlsx
@@ -1399,10 +1399,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K319"/>
+  <dimension ref="A1:K318"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4"/>
@@ -2874,116 +2874,123 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5">
+        <v>45602</v>
+      </c>
       <c r="B37" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="20">
+        <v>114.46</v>
+      </c>
+      <c r="E37" s="15">
+        <v>200</v>
+      </c>
+      <c r="F37" s="16">
+        <f t="shared" ref="F37:F93" si="14">E37*C37</f>
+        <v>200</v>
+      </c>
+      <c r="G37" s="21">
+        <v>25</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" ref="H37:H61" si="15">F37-G37</f>
+        <v>175</v>
+      </c>
+      <c r="I37" s="31">
+        <f t="shared" ref="I37:I93" si="16">((F37)-(D37*C37)-G37)*0.3</f>
+        <v>18.162</v>
+      </c>
+      <c r="J37" s="18">
+        <f t="shared" ref="J37:J94" si="17">((F37)-(D37*C37)-G37)*0.6</f>
+        <v>36.324</v>
+      </c>
+      <c r="K37" s="31">
+        <f t="shared" ref="K37:K93" si="18">((F37)-(D37*C37)-G37)*0.1</f>
+        <v>6.054</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="5">
+        <v>45602</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="20">
+        <f>104.48+5</f>
+        <v>109.48</v>
+      </c>
+      <c r="E38" s="15">
+        <v>200</v>
+      </c>
+      <c r="F38" s="16">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="G38" s="21">
+        <v>25</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" si="15"/>
+        <v>175</v>
+      </c>
+      <c r="I38" s="31">
+        <f t="shared" si="16"/>
+        <v>19.656</v>
+      </c>
+      <c r="J38" s="18">
+        <f t="shared" si="17"/>
+        <v>39.312</v>
+      </c>
+      <c r="K38" s="31">
+        <f t="shared" si="18"/>
+        <v>6.552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="5"/>
+      <c r="B39" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20">
         <f>105.98+5</f>
         <v>110.98</v>
       </c>
-      <c r="E37" s="15">
-        <v>200</v>
-      </c>
-      <c r="F37" s="16">
-        <f t="shared" si="9"/>
-        <v>200</v>
-      </c>
-      <c r="G37" s="21">
-        <v>0</v>
-      </c>
-      <c r="H37" s="18">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="I37" s="31">
-        <f t="shared" si="13"/>
-        <v>26.706</v>
-      </c>
-      <c r="J37" s="18">
-        <f t="shared" si="12"/>
-        <v>53.412</v>
-      </c>
-      <c r="K37" s="31">
-        <f t="shared" si="11"/>
-        <v>8.902</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="20">
-        <v>114.46</v>
-      </c>
-      <c r="E38" s="15">
-        <v>200</v>
-      </c>
-      <c r="F38" s="16">
-        <f t="shared" ref="F38:F94" si="14">E38*C38</f>
-        <v>200</v>
-      </c>
-      <c r="G38" s="21">
-        <v>20</v>
-      </c>
-      <c r="H38" s="18">
-        <f t="shared" ref="H38:H62" si="15">F38-G38</f>
-        <v>180</v>
-      </c>
-      <c r="I38" s="31">
-        <f t="shared" ref="I38:I94" si="16">((F38)-(D38*C38)-G38)*0.3</f>
-        <v>19.662</v>
-      </c>
-      <c r="J38" s="18">
-        <f t="shared" ref="J38:J95" si="17">((F38)-(D38*C38)-G38)*0.6</f>
-        <v>39.324</v>
-      </c>
-      <c r="K38" s="31">
-        <f t="shared" ref="K38:K94" si="18">((F38)-(D38*C38)-G38)*0.1</f>
-        <v>6.554</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="20">
-        <v>104.48</v>
-      </c>
       <c r="E39" s="15">
         <v>200</v>
       </c>
       <c r="F39" s="16">
-        <f t="shared" si="14"/>
+        <f>E39*C39</f>
         <v>200</v>
       </c>
       <c r="G39" s="21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H39" s="18">
-        <f t="shared" si="15"/>
-        <v>180</v>
+        <f>F39-G39</f>
+        <v>200</v>
       </c>
       <c r="I39" s="31">
-        <f t="shared" si="16"/>
-        <v>22.656</v>
+        <f>((F39)-(D39*C39)-G39)*0.3</f>
+        <v>26.706</v>
       </c>
       <c r="J39" s="18">
-        <f t="shared" si="17"/>
-        <v>45.312</v>
+        <f>((F39)-(D39*C39)-G39)*0.6</f>
+        <v>53.412</v>
       </c>
       <c r="K39" s="31">
-        <f t="shared" si="18"/>
-        <v>7.552</v>
+        <f>((F39)-(D39*C39)-G39)*0.1</f>
+        <v>8.902</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -3706,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H62:H93" si="19">F62-G62</f>
         <v>0</v>
       </c>
       <c r="I62" s="31">
@@ -3738,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="18">
-        <f t="shared" ref="H63:H94" si="19">F63-G63</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I63" s="31">
@@ -4723,18 +4730,18 @@
         <v>0</v>
       </c>
       <c r="F94" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F94:F157" si="20">E94*C94</f>
         <v>0</v>
       </c>
       <c r="G94" s="21">
         <v>0</v>
       </c>
       <c r="H94" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="H94:H125" si="21">F94-G94</f>
         <v>0</v>
       </c>
       <c r="I94" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I94:I157" si="22">((F94)-(D94*C94)-G94)*0.3</f>
         <v>0</v>
       </c>
       <c r="J94" s="18">
@@ -4742,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="K94:K157" si="23">((F94)-(D94*C94)-G94)*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -4755,26 +4762,26 @@
         <v>0</v>
       </c>
       <c r="F95" s="16">
-        <f t="shared" ref="F95:F158" si="20">E95*C95</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G95" s="21">
         <v>0</v>
       </c>
       <c r="H95" s="18">
-        <f t="shared" ref="H95:H126" si="21">F95-G95</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I95" s="31">
-        <f t="shared" ref="I95:I158" si="22">((F95)-(D95*C95)-G95)*0.3</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J95" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J95:J158" si="24">((F95)-(D95*C95)-G95)*0.6</f>
         <v>0</v>
       </c>
       <c r="K95" s="31">
-        <f t="shared" ref="K95:K158" si="23">((F95)-(D95*C95)-G95)*0.1</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4802,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="18">
-        <f t="shared" ref="J96:J159" si="24">((F96)-(D96*C96)-G96)*0.6</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K96" s="31">
@@ -5754,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="H126:H157" si="25">F126-G126</f>
         <v>0</v>
       </c>
       <c r="I126" s="31">
@@ -5786,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="18">
-        <f t="shared" ref="H127:H158" si="25">F127-G127</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I127" s="31">
@@ -6762,8 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
-      <c r="B158" s="13"/>
+    <row r="158" spans="4:11">
       <c r="D158" s="20">
         <v>0</v>
       </c>
@@ -6771,18 +6777,18 @@
         <v>0</v>
       </c>
       <c r="F158" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="F158:F221" si="26">E158*C158</f>
         <v>0</v>
       </c>
       <c r="G158" s="21">
         <v>0</v>
       </c>
       <c r="H158" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="H158:H179" si="27">F158-G158</f>
         <v>0</v>
       </c>
       <c r="I158" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="I158:I221" si="28">((F158)-(D158*C158)-G158)*0.3</f>
         <v>0</v>
       </c>
       <c r="J158" s="18">
@@ -6790,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="K158" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="K158:K221" si="29">((F158)-(D158*C158)-G158)*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -6802,26 +6808,26 @@
         <v>0</v>
       </c>
       <c r="F159" s="16">
-        <f t="shared" ref="F159:F222" si="26">E159*C159</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G159" s="21">
         <v>0</v>
       </c>
       <c r="H159" s="18">
-        <f t="shared" ref="H159:H180" si="27">F159-G159</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I159" s="31">
-        <f t="shared" ref="I159:I222" si="28">((F159)-(D159*C159)-G159)*0.3</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J159" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="J159:J222" si="30">((F159)-(D159*C159)-G159)*0.6</f>
         <v>0</v>
       </c>
       <c r="K159" s="31">
-        <f t="shared" ref="K159:K222" si="29">((F159)-(D159*C159)-G159)*0.1</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -6848,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="18">
-        <f t="shared" ref="J160:J223" si="30">((F160)-(D160*C160)-G160)*0.6</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K160" s="31">
@@ -7459,10 +7465,6 @@
       <c r="G180" s="21">
         <v>0</v>
       </c>
-      <c r="H180" s="18">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
       <c r="I180" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -8591,14 +8593,14 @@
         <v>0</v>
       </c>
       <c r="F222" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="F222:F239" si="31">E222*C222</f>
         <v>0</v>
       </c>
       <c r="G222" s="21">
         <v>0</v>
       </c>
       <c r="I222" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="I222:I266" si="32">((F222)-(D222*C222)-G222)*0.3</f>
         <v>0</v>
       </c>
       <c r="J222" s="18">
@@ -8606,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="K222" s="31">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="K222:K285" si="33">((F222)-(D222*C222)-G222)*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -8618,22 +8620,22 @@
         <v>0</v>
       </c>
       <c r="F223" s="16">
-        <f t="shared" ref="F223:F240" si="31">E223*C223</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G223" s="21">
         <v>0</v>
       </c>
       <c r="I223" s="31">
-        <f t="shared" ref="I223:I267" si="32">((F223)-(D223*C223)-G223)*0.3</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J223" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="J223:J286" si="34">((F223)-(D223*C223)-G223)*0.6</f>
         <v>0</v>
       </c>
       <c r="K223" s="31">
-        <f t="shared" ref="K223:K286" si="33">((F223)-(D223*C223)-G223)*0.1</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -8656,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="J224" s="18">
-        <f t="shared" ref="J224:J287" si="34">((F224)-(D224*C224)-G224)*0.6</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K224" s="31">
@@ -9046,9 +9048,6 @@
       <c r="D239" s="20">
         <v>0</v>
       </c>
-      <c r="E239" s="15">
-        <v>0</v>
-      </c>
       <c r="F239" s="16">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9073,10 +9072,6 @@
       <c r="D240" s="20">
         <v>0</v>
       </c>
-      <c r="F240" s="16">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
       <c r="G240" s="21">
         <v>0</v>
       </c>
@@ -9620,10 +9615,6 @@
       <c r="G267" s="21">
         <v>0</v>
       </c>
-      <c r="I267" s="31">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
       <c r="J267" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -9653,9 +9644,6 @@
       <c r="D269" s="20">
         <v>0</v>
       </c>
-      <c r="G269" s="21">
-        <v>0</v>
-      </c>
       <c r="J269" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -9834,10 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="4:11">
-      <c r="D283" s="20">
-        <v>0</v>
-      </c>
+    <row r="283" spans="10:11">
       <c r="J283" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -9873,13 +9858,13 @@
         <v>0</v>
       </c>
       <c r="K286" s="31">
-        <f t="shared" si="33"/>
+        <f>((F286)-(D286*C286)-G286)*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="10:11">
       <c r="J287" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="J287:J318" si="35">((F287)-(D287*C287)-G287)*0.6</f>
         <v>0</v>
       </c>
       <c r="K287" s="31">
@@ -9889,7 +9874,7 @@
     </row>
     <row r="288" spans="10:11">
       <c r="J288" s="18">
-        <f t="shared" ref="J288:J319" si="35">((F288)-(D288*C288)-G288)*0.6</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K288" s="31">
@@ -9897,13 +9882,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="10:11">
+    <row r="289" spans="10:10">
       <c r="J289" s="18">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="K289" s="31">
-        <f>((F289)-(D289*C289)-G289)*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -10081,15 +10062,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="10:10">
-      <c r="J319" s="18">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B158">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 B2:B36 B37:B38 B40:B157">
       <formula1>"Anti-sober,Arctic Materia,Glittersphere,Lotus Drift,Lumberfizz,Noble Aplomb,Pearanil Wisp,Sentir Le Creme,Shadow Orchids,Snow Crystal Gust,The Contained,The Unchained,Windsparks"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Purchase Records.xlsx
+++ b/Purchase Records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8952"/>
+    <workbookView windowWidth="23040" windowHeight="8952" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase Records" sheetId="1" r:id="rId1"/>
@@ -1401,8 +1401,8 @@
   <sheetPr/>
   <dimension ref="A1:K318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4"/>
@@ -2970,26 +2970,26 @@
         <v>200</v>
       </c>
       <c r="F39" s="16">
-        <f>E39*C39</f>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="G39" s="21">
         <v>0</v>
       </c>
       <c r="H39" s="18">
-        <f>F39-G39</f>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="I39" s="31">
-        <f>((F39)-(D39*C39)-G39)*0.3</f>
+        <f t="shared" si="16"/>
         <v>26.706</v>
       </c>
       <c r="J39" s="18">
-        <f>((F39)-(D39*C39)-G39)*0.6</f>
+        <f t="shared" si="17"/>
         <v>53.412</v>
       </c>
       <c r="K39" s="31">
-        <f>((F39)-(D39*C39)-G39)*0.1</f>
+        <f t="shared" si="18"/>
         <v>8.902</v>
       </c>
     </row>
@@ -10064,7 +10064,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 B2:B36 B37:B38 B40:B157">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B157">
       <formula1>"Anti-sober,Arctic Materia,Glittersphere,Lotus Drift,Lumberfizz,Noble Aplomb,Pearanil Wisp,Sentir Le Creme,Shadow Orchids,Snow Crystal Gust,The Contained,The Unchained,Windsparks"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10076,13 +10076,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.1578947368421" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1052631578947" style="2" customWidth="1"/>
@@ -10214,6 +10214,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>45604</v>
+      </c>
+      <c r="B8" s="2">
+        <v>750</v>
+      </c>
+      <c r="C8" s="2">
+        <v>540.53</v>
+      </c>
+      <c r="D8" s="2">
+        <v>179.54</v>
+      </c>
+      <c r="E8" s="2">
+        <v>29.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Purchase Records.xlsx
+++ b/Purchase Records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8952" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase Records" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -763,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +839,15 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,6 +856,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1399,10 +1414,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K318"/>
+  <dimension ref="A1:K319"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35:K38"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4"/>
@@ -1445,13 +1460,13 @@
       <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1482,15 +1497,15 @@
         <f t="shared" ref="H2:H9" si="1">F2-G2</f>
         <v>150</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="34">
         <f>((F2)-(D2*C2)-G2)*0.3</f>
         <v>14.196</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="35">
         <f>((F2)-(D2*C2)-G2)*0.6</f>
         <v>28.392</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="36">
         <f t="shared" ref="K2:K9" si="2">((F2)-(D2*C2)-G2)*0.1</f>
         <v>4.732</v>
       </c>
@@ -1522,7 +1537,7 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="36">
         <f>((F3)-(D3*C3)-G3)*0.3</f>
         <v>31.491</v>
       </c>
@@ -1530,7 +1545,7 @@
         <f>((F3)-(D3*C3)-G3)*0.6</f>
         <v>62.982</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="36">
         <f t="shared" si="2"/>
         <v>10.497</v>
       </c>
@@ -1563,7 +1578,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="36">
         <f>((F4)-(D4*C4)-G4)*0.2</f>
         <v>5.714</v>
       </c>
@@ -1571,7 +1586,7 @@
         <f>((F4)-(D4*C4)-G4)*0.7</f>
         <v>19.999</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="36">
         <f t="shared" si="2"/>
         <v>2.857</v>
       </c>
@@ -1604,7 +1619,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="36">
         <f>((F5)-(D5*C5)-G5)*0.2</f>
         <v>9.064</v>
       </c>
@@ -1612,7 +1627,7 @@
         <f>((F5)-(D5*C5)-G5)*0.7</f>
         <v>31.724</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="36">
         <f t="shared" si="2"/>
         <v>4.532</v>
       </c>
@@ -1644,7 +1659,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="36">
         <f t="shared" ref="I6:I12" si="3">((F6)-(D6*C6)-G6)*0.2</f>
         <v>8.628</v>
       </c>
@@ -1652,7 +1667,7 @@
         <f t="shared" ref="J6:J18" si="4">((F6)-(D6*C6)-G6)*0.7</f>
         <v>30.198</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="36">
         <f t="shared" si="2"/>
         <v>4.314</v>
       </c>
@@ -1684,7 +1699,7 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="36">
         <f t="shared" si="3"/>
         <v>18.728</v>
       </c>
@@ -1692,7 +1707,7 @@
         <f t="shared" si="4"/>
         <v>65.548</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="36">
         <f t="shared" si="2"/>
         <v>9.364</v>
       </c>
@@ -1724,7 +1739,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="36">
         <f t="shared" si="3"/>
         <v>8.314</v>
       </c>
@@ -1732,7 +1747,7 @@
         <f t="shared" si="4"/>
         <v>29.099</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="36">
         <f t="shared" si="2"/>
         <v>4.157</v>
       </c>
@@ -1764,7 +1779,7 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="36">
         <f t="shared" si="3"/>
         <v>12.576</v>
       </c>
@@ -1772,7 +1787,7 @@
         <f t="shared" si="4"/>
         <v>44.016</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="36">
         <f t="shared" si="2"/>
         <v>6.288</v>
       </c>
@@ -1805,7 +1820,7 @@
         <f t="shared" ref="H10:H15" si="6">F10-G10</f>
         <v>150</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="36">
         <f t="shared" si="3"/>
         <v>4.018</v>
       </c>
@@ -1813,7 +1828,7 @@
         <f t="shared" si="4"/>
         <v>14.063</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="36">
         <f t="shared" ref="K10:K15" si="7">((F10)-(D10*C10)-G10)*0.1</f>
         <v>2.009</v>
       </c>
@@ -1846,7 +1861,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="36">
         <f t="shared" si="3"/>
         <v>1.678</v>
       </c>
@@ -1854,7 +1869,7 @@
         <f t="shared" si="4"/>
         <v>5.87299999999999</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="36">
         <f t="shared" si="7"/>
         <v>0.838999999999999</v>
       </c>
@@ -1886,7 +1901,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="36">
         <f t="shared" ref="I12:I18" si="8">((F12)-(D12*C12)-G12)*0.2</f>
         <v>7.368</v>
       </c>
@@ -1894,7 +1909,7 @@
         <f t="shared" si="4"/>
         <v>25.788</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="36">
         <f t="shared" si="7"/>
         <v>3.684</v>
       </c>
@@ -1926,7 +1941,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="36">
         <f t="shared" si="8"/>
         <v>8.628</v>
       </c>
@@ -1934,7 +1949,7 @@
         <f t="shared" si="4"/>
         <v>30.198</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="36">
         <f t="shared" si="7"/>
         <v>4.314</v>
       </c>
@@ -1967,7 +1982,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="36">
         <f t="shared" si="8"/>
         <v>4.964</v>
       </c>
@@ -1975,7 +1990,7 @@
         <f t="shared" si="4"/>
         <v>17.374</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="36">
         <f t="shared" si="7"/>
         <v>2.482</v>
       </c>
@@ -2008,7 +2023,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="36">
         <f t="shared" si="8"/>
         <v>8.314</v>
       </c>
@@ -2016,7 +2031,7 @@
         <f t="shared" si="4"/>
         <v>29.099</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="36">
         <f t="shared" si="7"/>
         <v>4.157</v>
       </c>
@@ -2048,7 +2063,7 @@
         <f t="shared" ref="H16:H37" si="10">F16-G16</f>
         <v>150</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="36">
         <f t="shared" si="8"/>
         <v>9.364</v>
       </c>
@@ -2056,7 +2071,7 @@
         <f t="shared" si="4"/>
         <v>32.774</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="36">
         <f t="shared" ref="K16:K37" si="11">((F16)-(D16*C16)-G16)*0.1</f>
         <v>4.682</v>
       </c>
@@ -2088,7 +2103,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="36">
         <f t="shared" si="8"/>
         <v>9.064</v>
       </c>
@@ -2096,7 +2111,7 @@
         <f t="shared" si="4"/>
         <v>31.724</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="36">
         <f t="shared" si="11"/>
         <v>4.532</v>
       </c>
@@ -2128,7 +2143,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="36">
         <f t="shared" si="8"/>
         <v>7.368</v>
       </c>
@@ -2136,7 +2151,7 @@
         <f t="shared" si="4"/>
         <v>25.788</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="36">
         <f t="shared" si="11"/>
         <v>3.684</v>
       </c>
@@ -2169,7 +2184,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="36">
         <f>((F19)-(D19*C19)-G19)*0.3</f>
         <v>12.096</v>
       </c>
@@ -2177,7 +2192,7 @@
         <f t="shared" ref="J19:J37" si="12">((F19)-(D19*C19)-G19)*0.6</f>
         <v>24.192</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="36">
         <f t="shared" si="11"/>
         <v>4.032</v>
       </c>
@@ -2209,7 +2224,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="36">
         <f t="shared" ref="I20:I37" si="13">((F20)-(D20*C20)-G20)*0.3</f>
         <v>11.052</v>
       </c>
@@ -2217,7 +2232,7 @@
         <f t="shared" si="12"/>
         <v>22.104</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="36">
         <f t="shared" si="11"/>
         <v>3.684</v>
       </c>
@@ -2250,7 +2265,7 @@
         <f t="shared" si="10"/>
         <v>300</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="36">
         <f t="shared" si="13"/>
         <v>21.942</v>
       </c>
@@ -2258,7 +2273,7 @@
         <f t="shared" si="12"/>
         <v>43.884</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="36">
         <f t="shared" si="11"/>
         <v>7.314</v>
       </c>
@@ -2290,7 +2305,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="36">
         <f t="shared" si="13"/>
         <v>12.471</v>
       </c>
@@ -2298,7 +2313,7 @@
         <f t="shared" si="12"/>
         <v>24.942</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="36">
         <f t="shared" si="11"/>
         <v>4.157</v>
       </c>
@@ -2331,7 +2346,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="36">
         <f t="shared" si="13"/>
         <v>11.442</v>
       </c>
@@ -2339,7 +2354,7 @@
         <f t="shared" si="12"/>
         <v>22.884</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="36">
         <f t="shared" si="11"/>
         <v>3.814</v>
       </c>
@@ -2372,7 +2387,7 @@
         <f t="shared" si="10"/>
         <v>340</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="36">
         <f t="shared" si="13"/>
         <v>34.884</v>
       </c>
@@ -2380,7 +2395,7 @@
         <f t="shared" si="12"/>
         <v>69.768</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="36">
         <f t="shared" si="11"/>
         <v>11.628</v>
       </c>
@@ -2412,7 +2427,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="36">
         <f t="shared" si="13"/>
         <v>15.432</v>
       </c>
@@ -2420,7 +2435,7 @@
         <f t="shared" si="12"/>
         <v>30.864</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="36">
         <f t="shared" si="11"/>
         <v>5.144</v>
       </c>
@@ -2452,7 +2467,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="36">
         <f t="shared" si="13"/>
         <v>17.052</v>
       </c>
@@ -2460,7 +2475,7 @@
         <f t="shared" si="12"/>
         <v>34.104</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="36">
         <f t="shared" si="11"/>
         <v>5.684</v>
       </c>
@@ -2493,7 +2508,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="36">
         <f t="shared" si="13"/>
         <v>18.546</v>
       </c>
@@ -2501,7 +2516,7 @@
         <f t="shared" si="12"/>
         <v>37.092</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="36">
         <f t="shared" si="11"/>
         <v>6.182</v>
       </c>
@@ -2535,7 +2550,7 @@
         <f t="shared" si="10"/>
         <v>168.3</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="36">
         <f t="shared" si="13"/>
         <v>19.941</v>
       </c>
@@ -2543,7 +2558,7 @@
         <f t="shared" si="12"/>
         <v>39.882</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="36">
         <f t="shared" si="11"/>
         <v>6.647</v>
       </c>
@@ -2576,7 +2591,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="36">
         <f t="shared" si="13"/>
         <v>17.706</v>
       </c>
@@ -2584,7 +2599,7 @@
         <f t="shared" si="12"/>
         <v>35.412</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="36">
         <f t="shared" si="11"/>
         <v>5.902</v>
       </c>
@@ -2617,7 +2632,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="36">
         <f t="shared" si="13"/>
         <v>19.206</v>
       </c>
@@ -2625,7 +2640,7 @@
         <f t="shared" si="12"/>
         <v>38.412</v>
       </c>
-      <c r="K30" s="31">
+      <c r="K30" s="36">
         <f t="shared" si="11"/>
         <v>6.402</v>
       </c>
@@ -2657,7 +2672,7 @@
         <f t="shared" si="10"/>
         <v>510</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="36">
         <f t="shared" si="13"/>
         <v>45.126</v>
       </c>
@@ -2665,7 +2680,7 @@
         <f t="shared" si="12"/>
         <v>90.252</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="36">
         <f t="shared" si="11"/>
         <v>15.042</v>
       </c>
@@ -2698,7 +2713,7 @@
         <f t="shared" si="10"/>
         <v>180</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="36">
         <f t="shared" si="13"/>
         <v>21.156</v>
       </c>
@@ -2706,7 +2721,7 @@
         <f t="shared" si="12"/>
         <v>42.312</v>
       </c>
-      <c r="K32" s="31">
+      <c r="K32" s="36">
         <f t="shared" si="11"/>
         <v>7.052</v>
       </c>
@@ -2738,7 +2753,7 @@
         <f t="shared" si="10"/>
         <v>180</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="36">
         <f t="shared" si="13"/>
         <v>19.662</v>
       </c>
@@ -2746,7 +2761,7 @@
         <f t="shared" si="12"/>
         <v>39.324</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K33" s="36">
         <f t="shared" si="11"/>
         <v>6.554</v>
       </c>
@@ -2779,7 +2794,7 @@
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="36">
         <f t="shared" si="13"/>
         <v>24.162</v>
       </c>
@@ -2787,7 +2802,7 @@
         <f t="shared" si="12"/>
         <v>48.324</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="36">
         <f t="shared" si="11"/>
         <v>8.054</v>
       </c>
@@ -2819,7 +2834,7 @@
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I35" s="36">
         <f t="shared" si="13"/>
         <v>25.032</v>
       </c>
@@ -2827,7 +2842,7 @@
         <f t="shared" si="12"/>
         <v>50.064</v>
       </c>
-      <c r="K35" s="31">
+      <c r="K35" s="36">
         <f t="shared" si="11"/>
         <v>8.344</v>
       </c>
@@ -2860,7 +2875,7 @@
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I36" s="36">
         <f t="shared" si="13"/>
         <v>26.922</v>
       </c>
@@ -2868,7 +2883,7 @@
         <f t="shared" si="12"/>
         <v>53.844</v>
       </c>
-      <c r="K36" s="31">
+      <c r="K36" s="36">
         <f t="shared" si="11"/>
         <v>8.974</v>
       </c>
@@ -2890,26 +2905,26 @@
         <v>200</v>
       </c>
       <c r="F37" s="16">
-        <f t="shared" ref="F37:F93" si="14">E37*C37</f>
+        <f>E37*C37</f>
         <v>200</v>
       </c>
       <c r="G37" s="21">
         <v>25</v>
       </c>
       <c r="H37" s="18">
-        <f t="shared" ref="H37:H61" si="15">F37-G37</f>
+        <f>F37-G37</f>
         <v>175</v>
       </c>
-      <c r="I37" s="31">
-        <f t="shared" ref="I37:I93" si="16">((F37)-(D37*C37)-G37)*0.3</f>
+      <c r="I37" s="36">
+        <f>((F37)-(D37*C37)-G37)*0.3</f>
         <v>18.162</v>
       </c>
       <c r="J37" s="18">
-        <f t="shared" ref="J37:J94" si="17">((F37)-(D37*C37)-G37)*0.6</f>
+        <f>((F37)-(D37*C37)-G37)*0.6</f>
         <v>36.324</v>
       </c>
-      <c r="K37" s="31">
-        <f t="shared" ref="K37:K93" si="18">((F37)-(D37*C37)-G37)*0.1</f>
+      <c r="K37" s="36">
+        <f>((F37)-(D37*C37)-G37)*0.1</f>
         <v>6.054</v>
       </c>
     </row>
@@ -2931,98 +2946,106 @@
         <v>200</v>
       </c>
       <c r="F38" s="16">
-        <f t="shared" si="14"/>
+        <f>E38*C38</f>
         <v>200</v>
       </c>
       <c r="G38" s="21">
         <v>25</v>
       </c>
       <c r="H38" s="18">
-        <f t="shared" si="15"/>
+        <f>F38-G38</f>
         <v>175</v>
       </c>
-      <c r="I38" s="31">
-        <f t="shared" si="16"/>
+      <c r="I38" s="36">
+        <f>((F38)-(D38*C38)-G38)*0.3</f>
         <v>19.656</v>
       </c>
       <c r="J38" s="18">
-        <f t="shared" si="17"/>
+        <f>((F38)-(D38*C38)-G38)*0.6</f>
         <v>39.312</v>
       </c>
-      <c r="K38" s="31">
-        <f t="shared" si="18"/>
+      <c r="K38" s="36">
+        <f>((F38)-(D38*C38)-G38)*0.1</f>
         <v>6.552</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="5"/>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="28">
+        <v>45606</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="30">
+        <v>1</v>
+      </c>
+      <c r="D39" s="31">
+        <v>104.48</v>
+      </c>
+      <c r="E39" s="32">
+        <v>200</v>
+      </c>
+      <c r="F39" s="16">
+        <f>E39*C39</f>
+        <v>200</v>
+      </c>
+      <c r="G39" s="21">
+        <v>50</v>
+      </c>
+      <c r="H39" s="18">
+        <f>F39-G39</f>
+        <v>150</v>
+      </c>
+      <c r="I39" s="36">
+        <f>((F39)-(D39*C39)-G39)*0.3</f>
+        <v>13.656</v>
+      </c>
+      <c r="J39" s="18">
+        <f>((F39)-(D39*C39)-G39)*0.6</f>
+        <v>27.312</v>
+      </c>
+      <c r="K39" s="36">
+        <f>((F39)-(D39*C39)-G39)*0.1</f>
+        <v>4.552</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="5"/>
+      <c r="B40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40" s="1">
         <v>1</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D40" s="20">
         <f>105.98+5</f>
         <v>110.98</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="15">
         <v>200</v>
       </c>
-      <c r="F39" s="16">
-        <f t="shared" si="14"/>
+      <c r="F40" s="16">
+        <f>E40*C40</f>
         <v>200</v>
       </c>
-      <c r="G39" s="21">
-        <v>0</v>
-      </c>
-      <c r="H39" s="18">
-        <f t="shared" si="15"/>
+      <c r="G40" s="21">
+        <v>0</v>
+      </c>
+      <c r="H40" s="18">
+        <f>F40-G40</f>
         <v>200</v>
       </c>
-      <c r="I39" s="31">
-        <f t="shared" si="16"/>
+      <c r="I40" s="36">
+        <f>((F40)-(D40*C40)-G40)*0.3</f>
         <v>26.706</v>
       </c>
-      <c r="J39" s="18">
-        <f t="shared" si="17"/>
+      <c r="J40" s="18">
+        <f>((F40)-(D40*C40)-G40)*0.6</f>
         <v>53.412</v>
       </c>
-      <c r="K39" s="31">
-        <f t="shared" si="18"/>
+      <c r="K40" s="36">
+        <f>((F40)-(D40*C40)-G40)*0.1</f>
         <v>8.902</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="13"/>
-      <c r="D40" s="20">
-        <v>0</v>
-      </c>
-      <c r="E40" s="15">
-        <v>0</v>
-      </c>
-      <c r="F40" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="21">
-        <v>0</v>
-      </c>
-      <c r="H40" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="31">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="18">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="31">
-        <f t="shared" si="18"/>
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -3034,26 +3057,26 @@
         <v>0</v>
       </c>
       <c r="F41" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F41:F94" si="14">E41*C41</f>
         <v>0</v>
       </c>
       <c r="G41" s="21">
         <v>0</v>
       </c>
       <c r="H41" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="H41:H62" si="15">F41-G41</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="36">
+        <f t="shared" ref="I41:I94" si="16">((F41)-(D41*C41)-G41)*0.3</f>
         <v>0</v>
       </c>
       <c r="J41" s="18">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="J41:J95" si="17">((F41)-(D41*C41)-G41)*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="36">
+        <f t="shared" ref="K41:K94" si="18">((F41)-(D41*C41)-G41)*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -3076,7 +3099,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I42" s="31">
+      <c r="I42" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3084,7 +3107,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K42" s="31">
+      <c r="K42" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3108,7 +3131,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I43" s="31">
+      <c r="I43" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3116,7 +3139,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K43" s="31">
+      <c r="K43" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3140,7 +3163,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I44" s="31">
+      <c r="I44" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3148,7 +3171,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K44" s="31">
+      <c r="K44" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3172,7 +3195,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I45" s="31">
+      <c r="I45" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3180,7 +3203,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K45" s="31">
+      <c r="K45" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3204,7 +3227,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I46" s="31">
+      <c r="I46" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3212,7 +3235,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K46" s="31">
+      <c r="K46" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3236,7 +3259,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I47" s="31">
+      <c r="I47" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3244,7 +3267,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K47" s="31">
+      <c r="K47" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3268,7 +3291,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I48" s="31">
+      <c r="I48" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3276,7 +3299,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K48" s="31">
+      <c r="K48" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3300,7 +3323,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I49" s="31">
+      <c r="I49" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3308,7 +3331,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K49" s="31">
+      <c r="K49" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3332,7 +3355,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I50" s="31">
+      <c r="I50" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3340,7 +3363,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K50" s="31">
+      <c r="K50" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3364,7 +3387,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I51" s="31">
+      <c r="I51" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3372,7 +3395,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K51" s="31">
+      <c r="K51" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3396,7 +3419,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I52" s="31">
+      <c r="I52" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3404,7 +3427,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K52" s="31">
+      <c r="K52" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3428,7 +3451,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I53" s="31">
+      <c r="I53" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3436,7 +3459,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K53" s="31">
+      <c r="K53" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3460,7 +3483,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I54" s="31">
+      <c r="I54" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3468,7 +3491,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K54" s="31">
+      <c r="K54" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3492,7 +3515,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I55" s="31">
+      <c r="I55" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3500,7 +3523,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K55" s="31">
+      <c r="K55" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3524,7 +3547,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I56" s="31">
+      <c r="I56" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3532,7 +3555,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K56" s="31">
+      <c r="K56" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3556,7 +3579,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I57" s="31">
+      <c r="I57" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3564,7 +3587,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K57" s="31">
+      <c r="K57" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3588,7 +3611,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I58" s="31">
+      <c r="I58" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3596,7 +3619,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K58" s="31">
+      <c r="K58" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3620,7 +3643,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I59" s="31">
+      <c r="I59" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3628,7 +3651,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K59" s="31">
+      <c r="K59" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3652,7 +3675,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I60" s="31">
+      <c r="I60" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3660,7 +3683,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K60" s="31">
+      <c r="K60" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3684,7 +3707,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I61" s="31">
+      <c r="I61" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3692,7 +3715,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K61" s="31">
+      <c r="K61" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3713,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="18">
-        <f t="shared" ref="H62:H93" si="19">F62-G62</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3724,7 +3747,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K62" s="31">
+      <c r="K62" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3745,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="H63" s="18">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="31">
+        <f t="shared" ref="H63:H94" si="19">F63-G63</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3756,7 +3779,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K63" s="31">
+      <c r="K63" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3780,7 +3803,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I64" s="31">
+      <c r="I64" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3788,7 +3811,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K64" s="31">
+      <c r="K64" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3812,7 +3835,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I65" s="31">
+      <c r="I65" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3820,7 +3843,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K65" s="31">
+      <c r="K65" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3844,7 +3867,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I66" s="31">
+      <c r="I66" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3852,7 +3875,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K66" s="31">
+      <c r="K66" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3876,7 +3899,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I67" s="31">
+      <c r="I67" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3884,7 +3907,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K67" s="31">
+      <c r="K67" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3908,7 +3931,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I68" s="31">
+      <c r="I68" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3916,7 +3939,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K68" s="31">
+      <c r="K68" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3940,7 +3963,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I69" s="31">
+      <c r="I69" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3948,7 +3971,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K69" s="31">
+      <c r="K69" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3972,7 +3995,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I70" s="31">
+      <c r="I70" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3980,7 +4003,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K70" s="31">
+      <c r="K70" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4004,7 +4027,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I71" s="31">
+      <c r="I71" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4012,7 +4035,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K71" s="31">
+      <c r="K71" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4036,7 +4059,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I72" s="31">
+      <c r="I72" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4044,7 +4067,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K72" s="31">
+      <c r="K72" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4068,7 +4091,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I73" s="31">
+      <c r="I73" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4076,7 +4099,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K73" s="31">
+      <c r="K73" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4100,7 +4123,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I74" s="31">
+      <c r="I74" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4108,7 +4131,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K74" s="31">
+      <c r="K74" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4132,7 +4155,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I75" s="31">
+      <c r="I75" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4140,7 +4163,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K75" s="31">
+      <c r="K75" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4164,7 +4187,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I76" s="31">
+      <c r="I76" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4172,7 +4195,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K76" s="31">
+      <c r="K76" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4196,7 +4219,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I77" s="31">
+      <c r="I77" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4204,7 +4227,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K77" s="31">
+      <c r="K77" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4228,7 +4251,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I78" s="31">
+      <c r="I78" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4236,7 +4259,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K78" s="31">
+      <c r="K78" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4260,7 +4283,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I79" s="31">
+      <c r="I79" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4268,7 +4291,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K79" s="31">
+      <c r="K79" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4292,7 +4315,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I80" s="31">
+      <c r="I80" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4300,7 +4323,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K80" s="31">
+      <c r="K80" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4324,7 +4347,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I81" s="31">
+      <c r="I81" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4332,7 +4355,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K81" s="31">
+      <c r="K81" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4356,7 +4379,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I82" s="31">
+      <c r="I82" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4364,7 +4387,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K82" s="31">
+      <c r="K82" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4388,7 +4411,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I83" s="31">
+      <c r="I83" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4396,7 +4419,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K83" s="31">
+      <c r="K83" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4420,7 +4443,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I84" s="31">
+      <c r="I84" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4428,7 +4451,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K84" s="31">
+      <c r="K84" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4452,7 +4475,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I85" s="31">
+      <c r="I85" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4460,7 +4483,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K85" s="31">
+      <c r="K85" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4484,7 +4507,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I86" s="31">
+      <c r="I86" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4492,7 +4515,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K86" s="31">
+      <c r="K86" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4516,7 +4539,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I87" s="31">
+      <c r="I87" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4524,7 +4547,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K87" s="31">
+      <c r="K87" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4548,7 +4571,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I88" s="31">
+      <c r="I88" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4556,7 +4579,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K88" s="31">
+      <c r="K88" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4580,7 +4603,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I89" s="31">
+      <c r="I89" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4588,7 +4611,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K89" s="31">
+      <c r="K89" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4612,7 +4635,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I90" s="31">
+      <c r="I90" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4620,7 +4643,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K90" s="31">
+      <c r="K90" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4644,7 +4667,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I91" s="31">
+      <c r="I91" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4652,7 +4675,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K91" s="31">
+      <c r="K91" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4676,7 +4699,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I92" s="31">
+      <c r="I92" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4684,7 +4707,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K92" s="31">
+      <c r="K92" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4708,7 +4731,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I93" s="31">
+      <c r="I93" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4716,7 +4739,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K93" s="31">
+      <c r="K93" s="36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4730,26 +4753,26 @@
         <v>0</v>
       </c>
       <c r="F94" s="16">
-        <f t="shared" ref="F94:F157" si="20">E94*C94</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G94" s="21">
         <v>0</v>
       </c>
       <c r="H94" s="18">
-        <f t="shared" ref="H94:H125" si="21">F94-G94</f>
-        <v>0</v>
-      </c>
-      <c r="I94" s="31">
-        <f t="shared" ref="I94:I157" si="22">((F94)-(D94*C94)-G94)*0.3</f>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="36">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J94" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K94" s="31">
-        <f t="shared" ref="K94:K157" si="23">((F94)-(D94*C94)-G94)*0.1</f>
+      <c r="K94" s="36">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4762,26 +4785,26 @@
         <v>0</v>
       </c>
       <c r="F95" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="F95:F158" si="20">E95*C95</f>
         <v>0</v>
       </c>
       <c r="G95" s="21">
         <v>0</v>
       </c>
       <c r="H95" s="18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="H95:H126" si="21">F95-G95</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="36">
+        <f t="shared" ref="I95:I158" si="22">((F95)-(D95*C95)-G95)*0.3</f>
         <v>0</v>
       </c>
       <c r="J95" s="18">
-        <f t="shared" ref="J95:J158" si="24">((F95)-(D95*C95)-G95)*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="K95" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="36">
+        <f t="shared" ref="K95:K158" si="23">((F95)-(D95*C95)-G95)*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -4804,15 +4827,15 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I96" s="31">
+      <c r="I96" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J96" s="18">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="31">
+        <f t="shared" ref="J96:J159" si="24">((F96)-(D96*C96)-G96)*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4836,7 +4859,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I97" s="31">
+      <c r="I97" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4844,7 +4867,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K97" s="31">
+      <c r="K97" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4868,7 +4891,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I98" s="31">
+      <c r="I98" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4876,7 +4899,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K98" s="31">
+      <c r="K98" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4900,7 +4923,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I99" s="31">
+      <c r="I99" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4908,7 +4931,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K99" s="31">
+      <c r="K99" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4932,7 +4955,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I100" s="31">
+      <c r="I100" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4940,7 +4963,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K100" s="31">
+      <c r="K100" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4964,7 +4987,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I101" s="31">
+      <c r="I101" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4972,7 +4995,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K101" s="31">
+      <c r="K101" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4996,7 +5019,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I102" s="31">
+      <c r="I102" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5004,7 +5027,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K102" s="31">
+      <c r="K102" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5028,7 +5051,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I103" s="31">
+      <c r="I103" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5036,7 +5059,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K103" s="31">
+      <c r="K103" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5060,7 +5083,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I104" s="31">
+      <c r="I104" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5068,7 +5091,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K104" s="31">
+      <c r="K104" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5092,7 +5115,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I105" s="31">
+      <c r="I105" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5100,7 +5123,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K105" s="31">
+      <c r="K105" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5124,7 +5147,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I106" s="31">
+      <c r="I106" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5132,7 +5155,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K106" s="31">
+      <c r="K106" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5156,7 +5179,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I107" s="31">
+      <c r="I107" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5164,7 +5187,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K107" s="31">
+      <c r="K107" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5188,7 +5211,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I108" s="31">
+      <c r="I108" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5196,7 +5219,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K108" s="31">
+      <c r="K108" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5220,7 +5243,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I109" s="31">
+      <c r="I109" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5228,7 +5251,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K109" s="31">
+      <c r="K109" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5252,7 +5275,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I110" s="31">
+      <c r="I110" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5260,7 +5283,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K110" s="31">
+      <c r="K110" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5284,7 +5307,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I111" s="31">
+      <c r="I111" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5292,7 +5315,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K111" s="31">
+      <c r="K111" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5316,7 +5339,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I112" s="31">
+      <c r="I112" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5324,7 +5347,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K112" s="31">
+      <c r="K112" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5348,7 +5371,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I113" s="31">
+      <c r="I113" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5356,7 +5379,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K113" s="31">
+      <c r="K113" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5380,7 +5403,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I114" s="31">
+      <c r="I114" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5388,7 +5411,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K114" s="31">
+      <c r="K114" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5412,7 +5435,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I115" s="31">
+      <c r="I115" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5420,7 +5443,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K115" s="31">
+      <c r="K115" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5444,7 +5467,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I116" s="31">
+      <c r="I116" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5452,7 +5475,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K116" s="31">
+      <c r="K116" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5476,7 +5499,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I117" s="31">
+      <c r="I117" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5484,7 +5507,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K117" s="31">
+      <c r="K117" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5508,7 +5531,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I118" s="31">
+      <c r="I118" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5516,7 +5539,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K118" s="31">
+      <c r="K118" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5540,7 +5563,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I119" s="31">
+      <c r="I119" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5548,7 +5571,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K119" s="31">
+      <c r="K119" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5572,7 +5595,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I120" s="31">
+      <c r="I120" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5580,7 +5603,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K120" s="31">
+      <c r="K120" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5604,7 +5627,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I121" s="31">
+      <c r="I121" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5612,7 +5635,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K121" s="31">
+      <c r="K121" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5636,7 +5659,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I122" s="31">
+      <c r="I122" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5644,7 +5667,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K122" s="31">
+      <c r="K122" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5668,7 +5691,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I123" s="31">
+      <c r="I123" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5676,7 +5699,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K123" s="31">
+      <c r="K123" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5700,7 +5723,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I124" s="31">
+      <c r="I124" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5708,7 +5731,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K124" s="31">
+      <c r="K124" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5732,7 +5755,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I125" s="31">
+      <c r="I125" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5740,7 +5763,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K125" s="31">
+      <c r="K125" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5761,10 +5784,10 @@
         <v>0</v>
       </c>
       <c r="H126" s="18">
-        <f t="shared" ref="H126:H157" si="25">F126-G126</f>
-        <v>0</v>
-      </c>
-      <c r="I126" s="31">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5772,7 +5795,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K126" s="31">
+      <c r="K126" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5793,10 +5816,10 @@
         <v>0</v>
       </c>
       <c r="H127" s="18">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I127" s="31">
+        <f t="shared" ref="H127:H158" si="25">F127-G127</f>
+        <v>0</v>
+      </c>
+      <c r="I127" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5804,7 +5827,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K127" s="31">
+      <c r="K127" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5828,7 +5851,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I128" s="31">
+      <c r="I128" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5836,7 +5859,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K128" s="31">
+      <c r="K128" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5860,7 +5883,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I129" s="31">
+      <c r="I129" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5868,7 +5891,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K129" s="31">
+      <c r="K129" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5892,7 +5915,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I130" s="31">
+      <c r="I130" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5900,7 +5923,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K130" s="31">
+      <c r="K130" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5924,7 +5947,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I131" s="31">
+      <c r="I131" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5932,7 +5955,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K131" s="31">
+      <c r="K131" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5956,7 +5979,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I132" s="31">
+      <c r="I132" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5964,7 +5987,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K132" s="31">
+      <c r="K132" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5988,7 +6011,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I133" s="31">
+      <c r="I133" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5996,7 +6019,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K133" s="31">
+      <c r="K133" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6020,7 +6043,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I134" s="31">
+      <c r="I134" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6028,7 +6051,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K134" s="31">
+      <c r="K134" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6052,7 +6075,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I135" s="31">
+      <c r="I135" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6060,7 +6083,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K135" s="31">
+      <c r="K135" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6084,7 +6107,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I136" s="31">
+      <c r="I136" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6092,7 +6115,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K136" s="31">
+      <c r="K136" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6116,7 +6139,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I137" s="31">
+      <c r="I137" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6124,7 +6147,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K137" s="31">
+      <c r="K137" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6148,7 +6171,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I138" s="31">
+      <c r="I138" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6156,7 +6179,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K138" s="31">
+      <c r="K138" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6180,7 +6203,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I139" s="31">
+      <c r="I139" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6188,7 +6211,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K139" s="31">
+      <c r="K139" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6212,7 +6235,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I140" s="31">
+      <c r="I140" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6220,7 +6243,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K140" s="31">
+      <c r="K140" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6244,7 +6267,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I141" s="31">
+      <c r="I141" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6252,7 +6275,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K141" s="31">
+      <c r="K141" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6276,7 +6299,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I142" s="31">
+      <c r="I142" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6284,7 +6307,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K142" s="31">
+      <c r="K142" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6308,7 +6331,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I143" s="31">
+      <c r="I143" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6316,7 +6339,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K143" s="31">
+      <c r="K143" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6340,7 +6363,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I144" s="31">
+      <c r="I144" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6348,7 +6371,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K144" s="31">
+      <c r="K144" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6372,7 +6395,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I145" s="31">
+      <c r="I145" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6380,7 +6403,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K145" s="31">
+      <c r="K145" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6404,7 +6427,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I146" s="31">
+      <c r="I146" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6412,7 +6435,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K146" s="31">
+      <c r="K146" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6436,7 +6459,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I147" s="31">
+      <c r="I147" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6444,7 +6467,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K147" s="31">
+      <c r="K147" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6468,7 +6491,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I148" s="31">
+      <c r="I148" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6476,7 +6499,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K148" s="31">
+      <c r="K148" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6500,7 +6523,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I149" s="31">
+      <c r="I149" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6508,7 +6531,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K149" s="31">
+      <c r="K149" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6532,7 +6555,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I150" s="31">
+      <c r="I150" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6540,7 +6563,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K150" s="31">
+      <c r="K150" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6564,7 +6587,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I151" s="31">
+      <c r="I151" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6572,7 +6595,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K151" s="31">
+      <c r="K151" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6596,7 +6619,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I152" s="31">
+      <c r="I152" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6604,7 +6627,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K152" s="31">
+      <c r="K152" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6628,7 +6651,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I153" s="31">
+      <c r="I153" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6636,7 +6659,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K153" s="31">
+      <c r="K153" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6660,7 +6683,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I154" s="31">
+      <c r="I154" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6668,7 +6691,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K154" s="31">
+      <c r="K154" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6692,7 +6715,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I155" s="31">
+      <c r="I155" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6700,7 +6723,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K155" s="31">
+      <c r="K155" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6724,7 +6747,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I156" s="31">
+      <c r="I156" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6732,7 +6755,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K156" s="31">
+      <c r="K156" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6756,7 +6779,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I157" s="31">
+      <c r="I157" s="36">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6764,12 +6787,13 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K157" s="31">
+      <c r="K157" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="4:11">
+    <row r="158" spans="2:11">
+      <c r="B158" s="13"/>
       <c r="D158" s="20">
         <v>0</v>
       </c>
@@ -6777,26 +6801,26 @@
         <v>0</v>
       </c>
       <c r="F158" s="16">
-        <f t="shared" ref="F158:F221" si="26">E158*C158</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G158" s="21">
         <v>0</v>
       </c>
       <c r="H158" s="18">
-        <f t="shared" ref="H158:H179" si="27">F158-G158</f>
-        <v>0</v>
-      </c>
-      <c r="I158" s="31">
-        <f t="shared" ref="I158:I221" si="28">((F158)-(D158*C158)-G158)*0.3</f>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I158" s="36">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J158" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K158" s="31">
-        <f t="shared" ref="K158:K221" si="29">((F158)-(D158*C158)-G158)*0.1</f>
+      <c r="K158" s="36">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6808,26 +6832,26 @@
         <v>0</v>
       </c>
       <c r="F159" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="F159:F222" si="26">E159*C159</f>
         <v>0</v>
       </c>
       <c r="G159" s="21">
         <v>0</v>
       </c>
       <c r="H159" s="18">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I159" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="H159:H180" si="27">F159-G159</f>
+        <v>0</v>
+      </c>
+      <c r="I159" s="36">
+        <f t="shared" ref="I159:I222" si="28">((F159)-(D159*C159)-G159)*0.3</f>
         <v>0</v>
       </c>
       <c r="J159" s="18">
-        <f t="shared" ref="J159:J222" si="30">((F159)-(D159*C159)-G159)*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="K159" s="31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K159" s="36">
+        <f t="shared" ref="K159:K222" si="29">((F159)-(D159*C159)-G159)*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -6849,15 +6873,15 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I160" s="31">
+      <c r="I160" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J160" s="18">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K160" s="31">
+        <f t="shared" ref="J160:J223" si="30">((F160)-(D160*C160)-G160)*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="K160" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -6880,7 +6904,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I161" s="31">
+      <c r="I161" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -6888,7 +6912,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K161" s="31">
+      <c r="K161" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -6911,7 +6935,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I162" s="31">
+      <c r="I162" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -6919,7 +6943,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K162" s="31">
+      <c r="K162" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -6942,7 +6966,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I163" s="31">
+      <c r="I163" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -6950,7 +6974,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K163" s="31">
+      <c r="K163" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -6973,7 +6997,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I164" s="31">
+      <c r="I164" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -6981,7 +7005,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K164" s="31">
+      <c r="K164" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7004,7 +7028,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I165" s="31">
+      <c r="I165" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7012,7 +7036,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K165" s="31">
+      <c r="K165" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7035,7 +7059,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I166" s="31">
+      <c r="I166" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7043,7 +7067,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K166" s="31">
+      <c r="K166" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7066,7 +7090,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I167" s="31">
+      <c r="I167" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7074,7 +7098,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K167" s="31">
+      <c r="K167" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7097,7 +7121,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I168" s="31">
+      <c r="I168" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7105,7 +7129,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K168" s="31">
+      <c r="K168" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7128,7 +7152,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I169" s="31">
+      <c r="I169" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7136,7 +7160,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K169" s="31">
+      <c r="K169" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7159,7 +7183,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I170" s="31">
+      <c r="I170" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7167,7 +7191,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K170" s="31">
+      <c r="K170" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7190,7 +7214,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I171" s="31">
+      <c r="I171" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7198,7 +7222,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K171" s="31">
+      <c r="K171" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7221,7 +7245,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I172" s="31">
+      <c r="I172" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7229,7 +7253,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K172" s="31">
+      <c r="K172" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7252,7 +7276,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I173" s="31">
+      <c r="I173" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7260,7 +7284,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K173" s="31">
+      <c r="K173" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7283,7 +7307,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I174" s="31">
+      <c r="I174" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7291,7 +7315,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K174" s="31">
+      <c r="K174" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7314,7 +7338,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I175" s="31">
+      <c r="I175" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7322,7 +7346,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K175" s="31">
+      <c r="K175" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7345,7 +7369,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I176" s="31">
+      <c r="I176" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7353,7 +7377,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K176" s="31">
+      <c r="K176" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7376,7 +7400,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I177" s="31">
+      <c r="I177" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7384,7 +7408,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K177" s="31">
+      <c r="K177" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7407,7 +7431,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I178" s="31">
+      <c r="I178" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7415,7 +7439,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K178" s="31">
+      <c r="K178" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7438,7 +7462,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I179" s="31">
+      <c r="I179" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7446,7 +7470,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K179" s="31">
+      <c r="K179" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7465,7 +7489,11 @@
       <c r="G180" s="21">
         <v>0</v>
       </c>
-      <c r="I180" s="31">
+      <c r="H180" s="18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I180" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7473,7 +7501,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K180" s="31">
+      <c r="K180" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7492,7 +7520,7 @@
       <c r="G181" s="21">
         <v>0</v>
       </c>
-      <c r="I181" s="31">
+      <c r="I181" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7500,7 +7528,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K181" s="31">
+      <c r="K181" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7519,7 +7547,7 @@
       <c r="G182" s="21">
         <v>0</v>
       </c>
-      <c r="I182" s="31">
+      <c r="I182" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7527,7 +7555,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K182" s="31">
+      <c r="K182" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7546,7 +7574,7 @@
       <c r="G183" s="21">
         <v>0</v>
       </c>
-      <c r="I183" s="31">
+      <c r="I183" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7554,7 +7582,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K183" s="31">
+      <c r="K183" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7573,7 +7601,7 @@
       <c r="G184" s="21">
         <v>0</v>
       </c>
-      <c r="I184" s="31">
+      <c r="I184" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7581,7 +7609,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K184" s="31">
+      <c r="K184" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7600,7 +7628,7 @@
       <c r="G185" s="21">
         <v>0</v>
       </c>
-      <c r="I185" s="31">
+      <c r="I185" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7608,7 +7636,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K185" s="31">
+      <c r="K185" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7627,7 +7655,7 @@
       <c r="G186" s="21">
         <v>0</v>
       </c>
-      <c r="I186" s="31">
+      <c r="I186" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7635,7 +7663,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K186" s="31">
+      <c r="K186" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7654,7 +7682,7 @@
       <c r="G187" s="21">
         <v>0</v>
       </c>
-      <c r="I187" s="31">
+      <c r="I187" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7662,7 +7690,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K187" s="31">
+      <c r="K187" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7681,7 +7709,7 @@
       <c r="G188" s="21">
         <v>0</v>
       </c>
-      <c r="I188" s="31">
+      <c r="I188" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7689,7 +7717,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K188" s="31">
+      <c r="K188" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7708,7 +7736,7 @@
       <c r="G189" s="21">
         <v>0</v>
       </c>
-      <c r="I189" s="31">
+      <c r="I189" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7716,7 +7744,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K189" s="31">
+      <c r="K189" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7735,7 +7763,7 @@
       <c r="G190" s="21">
         <v>0</v>
       </c>
-      <c r="I190" s="31">
+      <c r="I190" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7743,7 +7771,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K190" s="31">
+      <c r="K190" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7762,7 +7790,7 @@
       <c r="G191" s="21">
         <v>0</v>
       </c>
-      <c r="I191" s="31">
+      <c r="I191" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7770,7 +7798,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K191" s="31">
+      <c r="K191" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7789,7 +7817,7 @@
       <c r="G192" s="21">
         <v>0</v>
       </c>
-      <c r="I192" s="31">
+      <c r="I192" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7797,7 +7825,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K192" s="31">
+      <c r="K192" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7816,7 +7844,7 @@
       <c r="G193" s="21">
         <v>0</v>
       </c>
-      <c r="I193" s="31">
+      <c r="I193" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7824,7 +7852,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K193" s="31">
+      <c r="K193" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7843,7 +7871,7 @@
       <c r="G194" s="21">
         <v>0</v>
       </c>
-      <c r="I194" s="31">
+      <c r="I194" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7851,7 +7879,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K194" s="31">
+      <c r="K194" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7870,7 +7898,7 @@
       <c r="G195" s="21">
         <v>0</v>
       </c>
-      <c r="I195" s="31">
+      <c r="I195" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7878,7 +7906,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K195" s="31">
+      <c r="K195" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7897,7 +7925,7 @@
       <c r="G196" s="21">
         <v>0</v>
       </c>
-      <c r="I196" s="31">
+      <c r="I196" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7905,7 +7933,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K196" s="31">
+      <c r="K196" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7924,7 +7952,7 @@
       <c r="G197" s="21">
         <v>0</v>
       </c>
-      <c r="I197" s="31">
+      <c r="I197" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7932,7 +7960,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K197" s="31">
+      <c r="K197" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7951,7 +7979,7 @@
       <c r="G198" s="21">
         <v>0</v>
       </c>
-      <c r="I198" s="31">
+      <c r="I198" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7959,7 +7987,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K198" s="31">
+      <c r="K198" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7978,7 +8006,7 @@
       <c r="G199" s="21">
         <v>0</v>
       </c>
-      <c r="I199" s="31">
+      <c r="I199" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7986,7 +8014,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K199" s="31">
+      <c r="K199" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8005,7 +8033,7 @@
       <c r="G200" s="21">
         <v>0</v>
       </c>
-      <c r="I200" s="31">
+      <c r="I200" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8013,7 +8041,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K200" s="31">
+      <c r="K200" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8032,7 +8060,7 @@
       <c r="G201" s="21">
         <v>0</v>
       </c>
-      <c r="I201" s="31">
+      <c r="I201" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8040,7 +8068,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K201" s="31">
+      <c r="K201" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8059,7 +8087,7 @@
       <c r="G202" s="21">
         <v>0</v>
       </c>
-      <c r="I202" s="31">
+      <c r="I202" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8067,7 +8095,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K202" s="31">
+      <c r="K202" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8086,7 +8114,7 @@
       <c r="G203" s="21">
         <v>0</v>
       </c>
-      <c r="I203" s="31">
+      <c r="I203" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8094,7 +8122,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K203" s="31">
+      <c r="K203" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8113,7 +8141,7 @@
       <c r="G204" s="21">
         <v>0</v>
       </c>
-      <c r="I204" s="31">
+      <c r="I204" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8121,7 +8149,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K204" s="31">
+      <c r="K204" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8140,7 +8168,7 @@
       <c r="G205" s="21">
         <v>0</v>
       </c>
-      <c r="I205" s="31">
+      <c r="I205" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8148,7 +8176,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K205" s="31">
+      <c r="K205" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8167,7 +8195,7 @@
       <c r="G206" s="21">
         <v>0</v>
       </c>
-      <c r="I206" s="31">
+      <c r="I206" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8175,7 +8203,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K206" s="31">
+      <c r="K206" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8194,7 +8222,7 @@
       <c r="G207" s="21">
         <v>0</v>
       </c>
-      <c r="I207" s="31">
+      <c r="I207" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8202,7 +8230,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K207" s="31">
+      <c r="K207" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8221,7 +8249,7 @@
       <c r="G208" s="21">
         <v>0</v>
       </c>
-      <c r="I208" s="31">
+      <c r="I208" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8229,7 +8257,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K208" s="31">
+      <c r="K208" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8248,7 +8276,7 @@
       <c r="G209" s="21">
         <v>0</v>
       </c>
-      <c r="I209" s="31">
+      <c r="I209" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8256,7 +8284,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K209" s="31">
+      <c r="K209" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8275,7 +8303,7 @@
       <c r="G210" s="21">
         <v>0</v>
       </c>
-      <c r="I210" s="31">
+      <c r="I210" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8283,7 +8311,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K210" s="31">
+      <c r="K210" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8302,7 +8330,7 @@
       <c r="G211" s="21">
         <v>0</v>
       </c>
-      <c r="I211" s="31">
+      <c r="I211" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8310,7 +8338,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K211" s="31">
+      <c r="K211" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8329,7 +8357,7 @@
       <c r="G212" s="21">
         <v>0</v>
       </c>
-      <c r="I212" s="31">
+      <c r="I212" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8337,7 +8365,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K212" s="31">
+      <c r="K212" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8356,7 +8384,7 @@
       <c r="G213" s="21">
         <v>0</v>
       </c>
-      <c r="I213" s="31">
+      <c r="I213" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8364,7 +8392,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K213" s="31">
+      <c r="K213" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8383,7 +8411,7 @@
       <c r="G214" s="21">
         <v>0</v>
       </c>
-      <c r="I214" s="31">
+      <c r="I214" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8391,7 +8419,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K214" s="31">
+      <c r="K214" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8410,7 +8438,7 @@
       <c r="G215" s="21">
         <v>0</v>
       </c>
-      <c r="I215" s="31">
+      <c r="I215" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8418,7 +8446,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K215" s="31">
+      <c r="K215" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8437,7 +8465,7 @@
       <c r="G216" s="21">
         <v>0</v>
       </c>
-      <c r="I216" s="31">
+      <c r="I216" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8445,7 +8473,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K216" s="31">
+      <c r="K216" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8464,7 +8492,7 @@
       <c r="G217" s="21">
         <v>0</v>
       </c>
-      <c r="I217" s="31">
+      <c r="I217" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8472,7 +8500,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K217" s="31">
+      <c r="K217" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8491,7 +8519,7 @@
       <c r="G218" s="21">
         <v>0</v>
       </c>
-      <c r="I218" s="31">
+      <c r="I218" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8499,7 +8527,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K218" s="31">
+      <c r="K218" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8518,7 +8546,7 @@
       <c r="G219" s="21">
         <v>0</v>
       </c>
-      <c r="I219" s="31">
+      <c r="I219" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8526,7 +8554,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K219" s="31">
+      <c r="K219" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8545,7 +8573,7 @@
       <c r="G220" s="21">
         <v>0</v>
       </c>
-      <c r="I220" s="31">
+      <c r="I220" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8553,7 +8581,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K220" s="31">
+      <c r="K220" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8572,7 +8600,7 @@
       <c r="G221" s="21">
         <v>0</v>
       </c>
-      <c r="I221" s="31">
+      <c r="I221" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8580,7 +8608,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K221" s="31">
+      <c r="K221" s="36">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8593,22 +8621,22 @@
         <v>0</v>
       </c>
       <c r="F222" s="16">
-        <f t="shared" ref="F222:F239" si="31">E222*C222</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G222" s="21">
         <v>0</v>
       </c>
-      <c r="I222" s="31">
-        <f t="shared" ref="I222:I266" si="32">((F222)-(D222*C222)-G222)*0.3</f>
+      <c r="I222" s="36">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J222" s="18">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K222" s="31">
-        <f t="shared" ref="K222:K285" si="33">((F222)-(D222*C222)-G222)*0.1</f>
+      <c r="K222" s="36">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -8620,22 +8648,22 @@
         <v>0</v>
       </c>
       <c r="F223" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="F223:F240" si="31">E223*C223</f>
         <v>0</v>
       </c>
       <c r="G223" s="21">
         <v>0</v>
       </c>
-      <c r="I223" s="31">
-        <f t="shared" si="32"/>
+      <c r="I223" s="36">
+        <f t="shared" ref="I223:I267" si="32">((F223)-(D223*C223)-G223)*0.3</f>
         <v>0</v>
       </c>
       <c r="J223" s="18">
-        <f t="shared" ref="J223:J286" si="34">((F223)-(D223*C223)-G223)*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="K223" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K223" s="36">
+        <f t="shared" ref="K223:K286" si="33">((F223)-(D223*C223)-G223)*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -8653,15 +8681,15 @@
       <c r="G224" s="21">
         <v>0</v>
       </c>
-      <c r="I224" s="31">
+      <c r="I224" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J224" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="K224" s="31">
+        <f t="shared" ref="J224:J287" si="34">((F224)-(D224*C224)-G224)*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="K224" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8680,7 +8708,7 @@
       <c r="G225" s="21">
         <v>0</v>
       </c>
-      <c r="I225" s="31">
+      <c r="I225" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8688,7 +8716,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K225" s="31">
+      <c r="K225" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8707,7 +8735,7 @@
       <c r="G226" s="21">
         <v>0</v>
       </c>
-      <c r="I226" s="31">
+      <c r="I226" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8715,7 +8743,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K226" s="31">
+      <c r="K226" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8734,7 +8762,7 @@
       <c r="G227" s="21">
         <v>0</v>
       </c>
-      <c r="I227" s="31">
+      <c r="I227" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8742,7 +8770,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K227" s="31">
+      <c r="K227" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8761,7 +8789,7 @@
       <c r="G228" s="21">
         <v>0</v>
       </c>
-      <c r="I228" s="31">
+      <c r="I228" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8769,7 +8797,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K228" s="31">
+      <c r="K228" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8788,7 +8816,7 @@
       <c r="G229" s="21">
         <v>0</v>
       </c>
-      <c r="I229" s="31">
+      <c r="I229" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8796,7 +8824,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K229" s="31">
+      <c r="K229" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8815,7 +8843,7 @@
       <c r="G230" s="21">
         <v>0</v>
       </c>
-      <c r="I230" s="31">
+      <c r="I230" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8823,7 +8851,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K230" s="31">
+      <c r="K230" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8842,7 +8870,7 @@
       <c r="G231" s="21">
         <v>0</v>
       </c>
-      <c r="I231" s="31">
+      <c r="I231" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8850,7 +8878,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K231" s="31">
+      <c r="K231" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8869,7 +8897,7 @@
       <c r="G232" s="21">
         <v>0</v>
       </c>
-      <c r="I232" s="31">
+      <c r="I232" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8877,7 +8905,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K232" s="31">
+      <c r="K232" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8896,7 +8924,7 @@
       <c r="G233" s="21">
         <v>0</v>
       </c>
-      <c r="I233" s="31">
+      <c r="I233" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8904,7 +8932,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K233" s="31">
+      <c r="K233" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8923,7 +8951,7 @@
       <c r="G234" s="21">
         <v>0</v>
       </c>
-      <c r="I234" s="31">
+      <c r="I234" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8931,7 +8959,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K234" s="31">
+      <c r="K234" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8950,7 +8978,7 @@
       <c r="G235" s="21">
         <v>0</v>
       </c>
-      <c r="I235" s="31">
+      <c r="I235" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8958,7 +8986,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K235" s="31">
+      <c r="K235" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8977,7 +9005,7 @@
       <c r="G236" s="21">
         <v>0</v>
       </c>
-      <c r="I236" s="31">
+      <c r="I236" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8985,7 +9013,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K236" s="31">
+      <c r="K236" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9004,7 +9032,7 @@
       <c r="G237" s="21">
         <v>0</v>
       </c>
-      <c r="I237" s="31">
+      <c r="I237" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9012,7 +9040,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K237" s="31">
+      <c r="K237" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9031,7 +9059,7 @@
       <c r="G238" s="21">
         <v>0</v>
       </c>
-      <c r="I238" s="31">
+      <c r="I238" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9039,7 +9067,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K238" s="31">
+      <c r="K238" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9048,6 +9076,9 @@
       <c r="D239" s="20">
         <v>0</v>
       </c>
+      <c r="E239" s="15">
+        <v>0</v>
+      </c>
       <c r="F239" s="16">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9055,7 +9086,7 @@
       <c r="G239" s="21">
         <v>0</v>
       </c>
-      <c r="I239" s="31">
+      <c r="I239" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9063,7 +9094,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K239" s="31">
+      <c r="K239" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9072,10 +9103,14 @@
       <c r="D240" s="20">
         <v>0</v>
       </c>
+      <c r="F240" s="16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="G240" s="21">
         <v>0</v>
       </c>
-      <c r="I240" s="31">
+      <c r="I240" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9083,7 +9118,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K240" s="31">
+      <c r="K240" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9095,7 +9130,7 @@
       <c r="G241" s="21">
         <v>0</v>
       </c>
-      <c r="I241" s="31">
+      <c r="I241" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9103,7 +9138,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K241" s="31">
+      <c r="K241" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9115,7 +9150,7 @@
       <c r="G242" s="21">
         <v>0</v>
       </c>
-      <c r="I242" s="31">
+      <c r="I242" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9123,7 +9158,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K242" s="31">
+      <c r="K242" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9135,7 +9170,7 @@
       <c r="G243" s="21">
         <v>0</v>
       </c>
-      <c r="I243" s="31">
+      <c r="I243" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9143,7 +9178,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K243" s="31">
+      <c r="K243" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9155,7 +9190,7 @@
       <c r="G244" s="21">
         <v>0</v>
       </c>
-      <c r="I244" s="31">
+      <c r="I244" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9163,7 +9198,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K244" s="31">
+      <c r="K244" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9175,7 +9210,7 @@
       <c r="G245" s="21">
         <v>0</v>
       </c>
-      <c r="I245" s="31">
+      <c r="I245" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9183,7 +9218,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K245" s="31">
+      <c r="K245" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9195,7 +9230,7 @@
       <c r="G246" s="21">
         <v>0</v>
       </c>
-      <c r="I246" s="31">
+      <c r="I246" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9203,7 +9238,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K246" s="31">
+      <c r="K246" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9215,7 +9250,7 @@
       <c r="G247" s="21">
         <v>0</v>
       </c>
-      <c r="I247" s="31">
+      <c r="I247" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9223,7 +9258,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K247" s="31">
+      <c r="K247" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9235,7 +9270,7 @@
       <c r="G248" s="21">
         <v>0</v>
       </c>
-      <c r="I248" s="31">
+      <c r="I248" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9243,7 +9278,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K248" s="31">
+      <c r="K248" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9255,7 +9290,7 @@
       <c r="G249" s="21">
         <v>0</v>
       </c>
-      <c r="I249" s="31">
+      <c r="I249" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9263,7 +9298,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K249" s="31">
+      <c r="K249" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9275,7 +9310,7 @@
       <c r="G250" s="21">
         <v>0</v>
       </c>
-      <c r="I250" s="31">
+      <c r="I250" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9283,7 +9318,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K250" s="31">
+      <c r="K250" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9295,7 +9330,7 @@
       <c r="G251" s="21">
         <v>0</v>
       </c>
-      <c r="I251" s="31">
+      <c r="I251" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9303,7 +9338,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K251" s="31">
+      <c r="K251" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9315,7 +9350,7 @@
       <c r="G252" s="21">
         <v>0</v>
       </c>
-      <c r="I252" s="31">
+      <c r="I252" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9323,7 +9358,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K252" s="31">
+      <c r="K252" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9335,7 +9370,7 @@
       <c r="G253" s="21">
         <v>0</v>
       </c>
-      <c r="I253" s="31">
+      <c r="I253" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9343,7 +9378,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K253" s="31">
+      <c r="K253" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9355,7 +9390,7 @@
       <c r="G254" s="21">
         <v>0</v>
       </c>
-      <c r="I254" s="31">
+      <c r="I254" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9363,7 +9398,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K254" s="31">
+      <c r="K254" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9375,7 +9410,7 @@
       <c r="G255" s="21">
         <v>0</v>
       </c>
-      <c r="I255" s="31">
+      <c r="I255" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9383,7 +9418,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K255" s="31">
+      <c r="K255" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9395,7 +9430,7 @@
       <c r="G256" s="21">
         <v>0</v>
       </c>
-      <c r="I256" s="31">
+      <c r="I256" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9403,7 +9438,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K256" s="31">
+      <c r="K256" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9415,7 +9450,7 @@
       <c r="G257" s="21">
         <v>0</v>
       </c>
-      <c r="I257" s="31">
+      <c r="I257" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9423,7 +9458,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K257" s="31">
+      <c r="K257" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9435,7 +9470,7 @@
       <c r="G258" s="21">
         <v>0</v>
       </c>
-      <c r="I258" s="31">
+      <c r="I258" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9443,7 +9478,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K258" s="31">
+      <c r="K258" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9455,7 +9490,7 @@
       <c r="G259" s="21">
         <v>0</v>
       </c>
-      <c r="I259" s="31">
+      <c r="I259" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9463,7 +9498,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K259" s="31">
+      <c r="K259" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9475,7 +9510,7 @@
       <c r="G260" s="21">
         <v>0</v>
       </c>
-      <c r="I260" s="31">
+      <c r="I260" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9483,7 +9518,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K260" s="31">
+      <c r="K260" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9495,7 +9530,7 @@
       <c r="G261" s="21">
         <v>0</v>
       </c>
-      <c r="I261" s="31">
+      <c r="I261" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9503,7 +9538,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K261" s="31">
+      <c r="K261" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9515,7 +9550,7 @@
       <c r="G262" s="21">
         <v>0</v>
       </c>
-      <c r="I262" s="31">
+      <c r="I262" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9523,7 +9558,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K262" s="31">
+      <c r="K262" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9535,7 +9570,7 @@
       <c r="G263" s="21">
         <v>0</v>
       </c>
-      <c r="I263" s="31">
+      <c r="I263" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9543,7 +9578,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K263" s="31">
+      <c r="K263" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9555,7 +9590,7 @@
       <c r="G264" s="21">
         <v>0</v>
       </c>
-      <c r="I264" s="31">
+      <c r="I264" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9563,7 +9598,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K264" s="31">
+      <c r="K264" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9575,7 +9610,7 @@
       <c r="G265" s="21">
         <v>0</v>
       </c>
-      <c r="I265" s="31">
+      <c r="I265" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9583,7 +9618,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K265" s="31">
+      <c r="K265" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9595,7 +9630,7 @@
       <c r="G266" s="21">
         <v>0</v>
       </c>
-      <c r="I266" s="31">
+      <c r="I266" s="36">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9603,7 +9638,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K266" s="31">
+      <c r="K266" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9615,11 +9650,15 @@
       <c r="G267" s="21">
         <v>0</v>
       </c>
+      <c r="I267" s="36">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
       <c r="J267" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K267" s="31">
+      <c r="K267" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9635,7 +9674,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K268" s="31">
+      <c r="K268" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9644,11 +9683,14 @@
       <c r="D269" s="20">
         <v>0</v>
       </c>
+      <c r="G269" s="21">
+        <v>0</v>
+      </c>
       <c r="J269" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K269" s="31">
+      <c r="K269" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9661,7 +9703,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K270" s="31">
+      <c r="K270" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9674,7 +9716,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K271" s="31">
+      <c r="K271" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9687,7 +9729,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K272" s="31">
+      <c r="K272" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9700,7 +9742,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K273" s="31">
+      <c r="K273" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9713,7 +9755,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K274" s="31">
+      <c r="K274" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9726,7 +9768,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K275" s="31">
+      <c r="K275" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9739,7 +9781,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K276" s="31">
+      <c r="K276" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9752,7 +9794,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K277" s="31">
+      <c r="K277" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9765,7 +9807,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K278" s="31">
+      <c r="K278" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9778,7 +9820,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K279" s="31">
+      <c r="K279" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9791,7 +9833,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K280" s="31">
+      <c r="K280" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9804,7 +9846,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K281" s="31">
+      <c r="K281" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9817,17 +9859,20 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K282" s="31">
+      <c r="K282" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="10:11">
+    <row r="283" spans="4:11">
+      <c r="D283" s="20">
+        <v>0</v>
+      </c>
       <c r="J283" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K283" s="31">
+      <c r="K283" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9837,7 +9882,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K284" s="31">
+      <c r="K284" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9847,7 +9892,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K285" s="31">
+      <c r="K285" s="36">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9857,34 +9902,38 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K286" s="31">
-        <f>((F286)-(D286*C286)-G286)*0.1</f>
+      <c r="K286" s="36">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="10:11">
       <c r="J287" s="18">
-        <f t="shared" ref="J287:J318" si="35">((F287)-(D287*C287)-G287)*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="K287" s="31">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K287" s="36">
         <f>((F287)-(D287*C287)-G287)*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="10:11">
       <c r="J288" s="18">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="K288" s="31">
+        <f t="shared" ref="J288:J319" si="35">((F288)-(D288*C288)-G288)*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="K288" s="36">
         <f>((F288)-(D288*C288)-G288)*0.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="10:10">
+    <row r="289" spans="10:11">
       <c r="J289" s="18">
         <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K289" s="36">
+        <f>((F289)-(D289*C289)-G289)*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -10062,9 +10111,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="319" spans="10:10">
+      <c r="J319" s="18">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B157">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 B40 B2:B38 B41:B158">
       <formula1>"Anti-sober,Arctic Materia,Glittersphere,Lotus Drift,Lumberfizz,Noble Aplomb,Pearanil Wisp,Sentir Le Creme,Shadow Orchids,Snow Crystal Gust,The Contained,The Unchained,Windsparks"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10078,7 +10133,7 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/Purchase Records.xlsx
+++ b/Purchase Records.xlsx
@@ -763,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,13 +848,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1417,7 +1420,7 @@
   <dimension ref="A1:K319"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4"/>
@@ -1460,13 +1463,13 @@
       <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1497,15 +1500,15 @@
         <f t="shared" ref="H2:H9" si="1">F2-G2</f>
         <v>150</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="35">
         <f>((F2)-(D2*C2)-G2)*0.3</f>
         <v>14.196</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="36">
         <f>((F2)-(D2*C2)-G2)*0.6</f>
         <v>28.392</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="37">
         <f t="shared" ref="K2:K9" si="2">((F2)-(D2*C2)-G2)*0.1</f>
         <v>4.732</v>
       </c>
@@ -1537,7 +1540,7 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="37">
         <f>((F3)-(D3*C3)-G3)*0.3</f>
         <v>31.491</v>
       </c>
@@ -1545,7 +1548,7 @@
         <f>((F3)-(D3*C3)-G3)*0.6</f>
         <v>62.982</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="37">
         <f t="shared" si="2"/>
         <v>10.497</v>
       </c>
@@ -1578,7 +1581,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="37">
         <f>((F4)-(D4*C4)-G4)*0.2</f>
         <v>5.714</v>
       </c>
@@ -1586,7 +1589,7 @@
         <f>((F4)-(D4*C4)-G4)*0.7</f>
         <v>19.999</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="37">
         <f t="shared" si="2"/>
         <v>2.857</v>
       </c>
@@ -1619,7 +1622,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="37">
         <f>((F5)-(D5*C5)-G5)*0.2</f>
         <v>9.064</v>
       </c>
@@ -1627,7 +1630,7 @@
         <f>((F5)-(D5*C5)-G5)*0.7</f>
         <v>31.724</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="37">
         <f t="shared" si="2"/>
         <v>4.532</v>
       </c>
@@ -1659,7 +1662,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="37">
         <f t="shared" ref="I6:I12" si="3">((F6)-(D6*C6)-G6)*0.2</f>
         <v>8.628</v>
       </c>
@@ -1667,7 +1670,7 @@
         <f t="shared" ref="J6:J18" si="4">((F6)-(D6*C6)-G6)*0.7</f>
         <v>30.198</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="37">
         <f t="shared" si="2"/>
         <v>4.314</v>
       </c>
@@ -1699,7 +1702,7 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="37">
         <f t="shared" si="3"/>
         <v>18.728</v>
       </c>
@@ -1707,7 +1710,7 @@
         <f t="shared" si="4"/>
         <v>65.548</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="37">
         <f t="shared" si="2"/>
         <v>9.364</v>
       </c>
@@ -1739,7 +1742,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="37">
         <f t="shared" si="3"/>
         <v>8.314</v>
       </c>
@@ -1747,7 +1750,7 @@
         <f t="shared" si="4"/>
         <v>29.099</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="37">
         <f t="shared" si="2"/>
         <v>4.157</v>
       </c>
@@ -1779,7 +1782,7 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="37">
         <f t="shared" si="3"/>
         <v>12.576</v>
       </c>
@@ -1787,7 +1790,7 @@
         <f t="shared" si="4"/>
         <v>44.016</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="37">
         <f t="shared" si="2"/>
         <v>6.288</v>
       </c>
@@ -1820,7 +1823,7 @@
         <f t="shared" ref="H10:H15" si="6">F10-G10</f>
         <v>150</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="37">
         <f t="shared" si="3"/>
         <v>4.018</v>
       </c>
@@ -1828,7 +1831,7 @@
         <f t="shared" si="4"/>
         <v>14.063</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="37">
         <f t="shared" ref="K10:K15" si="7">((F10)-(D10*C10)-G10)*0.1</f>
         <v>2.009</v>
       </c>
@@ -1861,7 +1864,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="37">
         <f t="shared" si="3"/>
         <v>1.678</v>
       </c>
@@ -1869,7 +1872,7 @@
         <f t="shared" si="4"/>
         <v>5.87299999999999</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="37">
         <f t="shared" si="7"/>
         <v>0.838999999999999</v>
       </c>
@@ -1901,7 +1904,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="37">
         <f t="shared" ref="I12:I18" si="8">((F12)-(D12*C12)-G12)*0.2</f>
         <v>7.368</v>
       </c>
@@ -1909,7 +1912,7 @@
         <f t="shared" si="4"/>
         <v>25.788</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="37">
         <f t="shared" si="7"/>
         <v>3.684</v>
       </c>
@@ -1941,7 +1944,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="37">
         <f t="shared" si="8"/>
         <v>8.628</v>
       </c>
@@ -1949,7 +1952,7 @@
         <f t="shared" si="4"/>
         <v>30.198</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="37">
         <f t="shared" si="7"/>
         <v>4.314</v>
       </c>
@@ -1982,7 +1985,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="37">
         <f t="shared" si="8"/>
         <v>4.964</v>
       </c>
@@ -1990,7 +1993,7 @@
         <f t="shared" si="4"/>
         <v>17.374</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="37">
         <f t="shared" si="7"/>
         <v>2.482</v>
       </c>
@@ -2023,7 +2026,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="37">
         <f t="shared" si="8"/>
         <v>8.314</v>
       </c>
@@ -2031,7 +2034,7 @@
         <f t="shared" si="4"/>
         <v>29.099</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="37">
         <f t="shared" si="7"/>
         <v>4.157</v>
       </c>
@@ -2053,17 +2056,17 @@
         <v>200</v>
       </c>
       <c r="F16" s="16">
-        <f t="shared" ref="F16:F37" si="9">E16*C16</f>
+        <f t="shared" ref="F16:F40" si="9">E16*C16</f>
         <v>200</v>
       </c>
       <c r="G16" s="21">
         <v>50</v>
       </c>
       <c r="H16" s="18">
-        <f t="shared" ref="H16:H37" si="10">F16-G16</f>
+        <f t="shared" ref="H16:H40" si="10">F16-G16</f>
         <v>150</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="37">
         <f t="shared" si="8"/>
         <v>9.364</v>
       </c>
@@ -2071,8 +2074,8 @@
         <f t="shared" si="4"/>
         <v>32.774</v>
       </c>
-      <c r="K16" s="36">
-        <f t="shared" ref="K16:K37" si="11">((F16)-(D16*C16)-G16)*0.1</f>
+      <c r="K16" s="37">
+        <f t="shared" ref="K16:K40" si="11">((F16)-(D16*C16)-G16)*0.1</f>
         <v>4.682</v>
       </c>
     </row>
@@ -2103,7 +2106,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="37">
         <f t="shared" si="8"/>
         <v>9.064</v>
       </c>
@@ -2111,7 +2114,7 @@
         <f t="shared" si="4"/>
         <v>31.724</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="37">
         <f t="shared" si="11"/>
         <v>4.532</v>
       </c>
@@ -2143,7 +2146,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="37">
         <f t="shared" si="8"/>
         <v>7.368</v>
       </c>
@@ -2151,7 +2154,7 @@
         <f t="shared" si="4"/>
         <v>25.788</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="37">
         <f t="shared" si="11"/>
         <v>3.684</v>
       </c>
@@ -2184,15 +2187,15 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="37">
         <f>((F19)-(D19*C19)-G19)*0.3</f>
         <v>12.096</v>
       </c>
       <c r="J19" s="18">
-        <f t="shared" ref="J19:J37" si="12">((F19)-(D19*C19)-G19)*0.6</f>
+        <f t="shared" ref="J19:J40" si="12">((F19)-(D19*C19)-G19)*0.6</f>
         <v>24.192</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="37">
         <f t="shared" si="11"/>
         <v>4.032</v>
       </c>
@@ -2224,15 +2227,15 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I20" s="36">
-        <f t="shared" ref="I20:I37" si="13">((F20)-(D20*C20)-G20)*0.3</f>
+      <c r="I20" s="37">
+        <f t="shared" ref="I20:I40" si="13">((F20)-(D20*C20)-G20)*0.3</f>
         <v>11.052</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="12"/>
         <v>22.104</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="37">
         <f t="shared" si="11"/>
         <v>3.684</v>
       </c>
@@ -2265,7 +2268,7 @@
         <f t="shared" si="10"/>
         <v>300</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="37">
         <f t="shared" si="13"/>
         <v>21.942</v>
       </c>
@@ -2273,7 +2276,7 @@
         <f t="shared" si="12"/>
         <v>43.884</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="37">
         <f t="shared" si="11"/>
         <v>7.314</v>
       </c>
@@ -2305,7 +2308,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="37">
         <f t="shared" si="13"/>
         <v>12.471</v>
       </c>
@@ -2313,7 +2316,7 @@
         <f t="shared" si="12"/>
         <v>24.942</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="37">
         <f t="shared" si="11"/>
         <v>4.157</v>
       </c>
@@ -2346,7 +2349,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="37">
         <f t="shared" si="13"/>
         <v>11.442</v>
       </c>
@@ -2354,7 +2357,7 @@
         <f t="shared" si="12"/>
         <v>22.884</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="37">
         <f t="shared" si="11"/>
         <v>3.814</v>
       </c>
@@ -2387,7 +2390,7 @@
         <f t="shared" si="10"/>
         <v>340</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="37">
         <f t="shared" si="13"/>
         <v>34.884</v>
       </c>
@@ -2395,7 +2398,7 @@
         <f t="shared" si="12"/>
         <v>69.768</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="37">
         <f t="shared" si="11"/>
         <v>11.628</v>
       </c>
@@ -2427,7 +2430,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="37">
         <f t="shared" si="13"/>
         <v>15.432</v>
       </c>
@@ -2435,7 +2438,7 @@
         <f t="shared" si="12"/>
         <v>30.864</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="37">
         <f t="shared" si="11"/>
         <v>5.144</v>
       </c>
@@ -2467,7 +2470,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="37">
         <f t="shared" si="13"/>
         <v>17.052</v>
       </c>
@@ -2475,7 +2478,7 @@
         <f t="shared" si="12"/>
         <v>34.104</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="37">
         <f t="shared" si="11"/>
         <v>5.684</v>
       </c>
@@ -2508,7 +2511,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="37">
         <f t="shared" si="13"/>
         <v>18.546</v>
       </c>
@@ -2516,7 +2519,7 @@
         <f t="shared" si="12"/>
         <v>37.092</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="37">
         <f t="shared" si="11"/>
         <v>6.182</v>
       </c>
@@ -2550,7 +2553,7 @@
         <f t="shared" si="10"/>
         <v>168.3</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="37">
         <f t="shared" si="13"/>
         <v>19.941</v>
       </c>
@@ -2558,7 +2561,7 @@
         <f t="shared" si="12"/>
         <v>39.882</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="37">
         <f t="shared" si="11"/>
         <v>6.647</v>
       </c>
@@ -2591,7 +2594,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="37">
         <f t="shared" si="13"/>
         <v>17.706</v>
       </c>
@@ -2599,7 +2602,7 @@
         <f t="shared" si="12"/>
         <v>35.412</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="37">
         <f t="shared" si="11"/>
         <v>5.902</v>
       </c>
@@ -2632,7 +2635,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="37">
         <f t="shared" si="13"/>
         <v>19.206</v>
       </c>
@@ -2640,7 +2643,7 @@
         <f t="shared" si="12"/>
         <v>38.412</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="37">
         <f t="shared" si="11"/>
         <v>6.402</v>
       </c>
@@ -2672,7 +2675,7 @@
         <f t="shared" si="10"/>
         <v>510</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="37">
         <f t="shared" si="13"/>
         <v>45.126</v>
       </c>
@@ -2680,7 +2683,7 @@
         <f t="shared" si="12"/>
         <v>90.252</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="37">
         <f t="shared" si="11"/>
         <v>15.042</v>
       </c>
@@ -2713,7 +2716,7 @@
         <f t="shared" si="10"/>
         <v>180</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="37">
         <f t="shared" si="13"/>
         <v>21.156</v>
       </c>
@@ -2721,7 +2724,7 @@
         <f t="shared" si="12"/>
         <v>42.312</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="37">
         <f t="shared" si="11"/>
         <v>7.052</v>
       </c>
@@ -2753,7 +2756,7 @@
         <f t="shared" si="10"/>
         <v>180</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="37">
         <f t="shared" si="13"/>
         <v>19.662</v>
       </c>
@@ -2761,7 +2764,7 @@
         <f t="shared" si="12"/>
         <v>39.324</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="37">
         <f t="shared" si="11"/>
         <v>6.554</v>
       </c>
@@ -2794,7 +2797,7 @@
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="37">
         <f t="shared" si="13"/>
         <v>24.162</v>
       </c>
@@ -2802,19 +2805,19 @@
         <f t="shared" si="12"/>
         <v>48.324</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="37">
         <f t="shared" si="11"/>
         <v>8.054</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="25">
+      <c r="A35" s="22">
         <v>45600</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="23">
         <v>1</v>
       </c>
       <c r="D35" s="20">
@@ -2834,7 +2837,7 @@
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="37">
         <f t="shared" si="13"/>
         <v>25.032</v>
       </c>
@@ -2842,7 +2845,7 @@
         <f t="shared" si="12"/>
         <v>50.064</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="37">
         <f t="shared" si="11"/>
         <v>8.344</v>
       </c>
@@ -2875,7 +2878,7 @@
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="37">
         <f t="shared" si="13"/>
         <v>26.922</v>
       </c>
@@ -2883,7 +2886,7 @@
         <f t="shared" si="12"/>
         <v>53.844</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="37">
         <f t="shared" si="11"/>
         <v>8.974</v>
       </c>
@@ -2905,26 +2908,26 @@
         <v>200</v>
       </c>
       <c r="F37" s="16">
-        <f>E37*C37</f>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="G37" s="21">
         <v>25</v>
       </c>
       <c r="H37" s="18">
-        <f>F37-G37</f>
+        <f t="shared" si="10"/>
         <v>175</v>
       </c>
-      <c r="I37" s="36">
-        <f>((F37)-(D37*C37)-G37)*0.3</f>
+      <c r="I37" s="37">
+        <f t="shared" si="13"/>
         <v>18.162</v>
       </c>
       <c r="J37" s="18">
-        <f>((F37)-(D37*C37)-G37)*0.6</f>
+        <f t="shared" si="12"/>
         <v>36.324</v>
       </c>
-      <c r="K37" s="36">
-        <f>((F37)-(D37*C37)-G37)*0.1</f>
+      <c r="K37" s="37">
+        <f t="shared" si="11"/>
         <v>6.054</v>
       </c>
     </row>
@@ -2946,71 +2949,73 @@
         <v>200</v>
       </c>
       <c r="F38" s="16">
-        <f>E38*C38</f>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="G38" s="21">
         <v>25</v>
       </c>
       <c r="H38" s="18">
-        <f>F38-G38</f>
+        <f t="shared" si="10"/>
         <v>175</v>
       </c>
-      <c r="I38" s="36">
-        <f>((F38)-(D38*C38)-G38)*0.3</f>
+      <c r="I38" s="37">
+        <f t="shared" si="13"/>
         <v>19.656</v>
       </c>
       <c r="J38" s="18">
-        <f>((F38)-(D38*C38)-G38)*0.6</f>
+        <f t="shared" si="12"/>
         <v>39.312</v>
       </c>
-      <c r="K38" s="36">
-        <f>((F38)-(D38*C38)-G38)*0.1</f>
+      <c r="K38" s="37">
+        <f t="shared" si="11"/>
         <v>6.552</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="28">
+      <c r="A39" s="25">
         <v>45606</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="27">
         <v>1</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="28">
         <v>104.48</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="29">
         <v>200</v>
       </c>
       <c r="F39" s="16">
-        <f>E39*C39</f>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="G39" s="21">
         <v>50</v>
       </c>
       <c r="H39" s="18">
-        <f>F39-G39</f>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I39" s="36">
-        <f>((F39)-(D39*C39)-G39)*0.3</f>
+      <c r="I39" s="37">
+        <f t="shared" si="13"/>
         <v>13.656</v>
       </c>
       <c r="J39" s="18">
-        <f>((F39)-(D39*C39)-G39)*0.6</f>
+        <f t="shared" si="12"/>
         <v>27.312</v>
       </c>
-      <c r="K39" s="36">
-        <f>((F39)-(D39*C39)-G39)*0.1</f>
+      <c r="K39" s="37">
+        <f t="shared" si="11"/>
         <v>4.552</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="5"/>
+      <c r="A40" s="5">
+        <v>45607</v>
+      </c>
       <c r="B40" s="13" t="s">
         <v>20</v>
       </c>
@@ -3025,35 +3030,37 @@
         <v>200</v>
       </c>
       <c r="F40" s="16">
-        <f>E40*C40</f>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="G40" s="21">
         <v>0</v>
       </c>
       <c r="H40" s="18">
-        <f>F40-G40</f>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="I40" s="36">
-        <f>((F40)-(D40*C40)-G40)*0.3</f>
+      <c r="I40" s="37">
+        <f t="shared" si="13"/>
         <v>26.706</v>
       </c>
       <c r="J40" s="18">
-        <f>((F40)-(D40*C40)-G40)*0.6</f>
+        <f t="shared" si="12"/>
         <v>53.412</v>
       </c>
-      <c r="K40" s="36">
-        <f>((F40)-(D40*C40)-G40)*0.1</f>
+      <c r="K40" s="37">
+        <f t="shared" si="11"/>
         <v>8.902</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="13"/>
-      <c r="D41" s="20">
-        <v>0</v>
-      </c>
-      <c r="E41" s="15">
+    <row r="41" spans="1:11">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="32">
+        <v>0</v>
+      </c>
+      <c r="E41" s="33">
         <v>0</v>
       </c>
       <c r="F41" s="16">
@@ -3067,7 +3074,7 @@
         <f t="shared" ref="H41:H62" si="15">F41-G41</f>
         <v>0</v>
       </c>
-      <c r="I41" s="36">
+      <c r="I41" s="37">
         <f t="shared" ref="I41:I94" si="16">((F41)-(D41*C41)-G41)*0.3</f>
         <v>0</v>
       </c>
@@ -3075,7 +3082,7 @@
         <f t="shared" ref="J41:J95" si="17">((F41)-(D41*C41)-G41)*0.6</f>
         <v>0</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="37">
         <f t="shared" ref="K41:K94" si="18">((F41)-(D41*C41)-G41)*0.1</f>
         <v>0</v>
       </c>
@@ -3099,7 +3106,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I42" s="36">
+      <c r="I42" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3107,7 +3114,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3131,7 +3138,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I43" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3139,7 +3146,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3163,7 +3170,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I44" s="36">
+      <c r="I44" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3171,7 +3178,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K44" s="36">
+      <c r="K44" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3195,7 +3202,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3203,7 +3210,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3227,7 +3234,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3235,7 +3242,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K46" s="36">
+      <c r="K46" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3259,7 +3266,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I47" s="36">
+      <c r="I47" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3267,7 +3274,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3291,7 +3298,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I48" s="36">
+      <c r="I48" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3299,7 +3306,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K48" s="36">
+      <c r="K48" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3323,7 +3330,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I49" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3331,7 +3338,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K49" s="36">
+      <c r="K49" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3355,7 +3362,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I50" s="36">
+      <c r="I50" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3363,7 +3370,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K50" s="36">
+      <c r="K50" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3387,7 +3394,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I51" s="36">
+      <c r="I51" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3395,7 +3402,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K51" s="36">
+      <c r="K51" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3419,7 +3426,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I52" s="36">
+      <c r="I52" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3427,7 +3434,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K52" s="36">
+      <c r="K52" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3451,7 +3458,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I53" s="36">
+      <c r="I53" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3459,7 +3466,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3483,7 +3490,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I54" s="36">
+      <c r="I54" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3491,7 +3498,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K54" s="36">
+      <c r="K54" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3515,7 +3522,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I55" s="36">
+      <c r="I55" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3523,7 +3530,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K55" s="36">
+      <c r="K55" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3547,7 +3554,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I56" s="36">
+      <c r="I56" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3555,7 +3562,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K56" s="36">
+      <c r="K56" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3579,7 +3586,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I57" s="36">
+      <c r="I57" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3587,7 +3594,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K57" s="36">
+      <c r="K57" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3611,7 +3618,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I58" s="36">
+      <c r="I58" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3619,7 +3626,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K58" s="36">
+      <c r="K58" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3643,7 +3650,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I59" s="36">
+      <c r="I59" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3651,7 +3658,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K59" s="36">
+      <c r="K59" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3675,7 +3682,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I60" s="36">
+      <c r="I60" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3683,7 +3690,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K60" s="36">
+      <c r="K60" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3707,7 +3714,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I61" s="36">
+      <c r="I61" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3715,7 +3722,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K61" s="36">
+      <c r="K61" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3739,7 +3746,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I62" s="36">
+      <c r="I62" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3747,7 +3754,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K62" s="36">
+      <c r="K62" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3771,7 +3778,7 @@
         <f t="shared" ref="H63:H94" si="19">F63-G63</f>
         <v>0</v>
       </c>
-      <c r="I63" s="36">
+      <c r="I63" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3779,7 +3786,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K63" s="36">
+      <c r="K63" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3803,7 +3810,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I64" s="36">
+      <c r="I64" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3811,7 +3818,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K64" s="36">
+      <c r="K64" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3835,7 +3842,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I65" s="36">
+      <c r="I65" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3843,7 +3850,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K65" s="36">
+      <c r="K65" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3867,7 +3874,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I66" s="36">
+      <c r="I66" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3875,7 +3882,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K66" s="36">
+      <c r="K66" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3899,7 +3906,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I67" s="36">
+      <c r="I67" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3907,7 +3914,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K67" s="36">
+      <c r="K67" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3931,7 +3938,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I68" s="36">
+      <c r="I68" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3939,7 +3946,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K68" s="36">
+      <c r="K68" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3963,7 +3970,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I69" s="36">
+      <c r="I69" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3971,7 +3978,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K69" s="36">
+      <c r="K69" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3995,7 +4002,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I70" s="36">
+      <c r="I70" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4003,7 +4010,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K70" s="36">
+      <c r="K70" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4027,7 +4034,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I71" s="36">
+      <c r="I71" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4035,7 +4042,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K71" s="36">
+      <c r="K71" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4059,7 +4066,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I72" s="36">
+      <c r="I72" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4067,7 +4074,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K72" s="36">
+      <c r="K72" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4091,7 +4098,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I73" s="36">
+      <c r="I73" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4099,7 +4106,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K73" s="36">
+      <c r="K73" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4123,7 +4130,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I74" s="36">
+      <c r="I74" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4131,7 +4138,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K74" s="36">
+      <c r="K74" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4155,7 +4162,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I75" s="36">
+      <c r="I75" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4163,7 +4170,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K75" s="36">
+      <c r="K75" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4187,7 +4194,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I76" s="36">
+      <c r="I76" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4195,7 +4202,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K76" s="36">
+      <c r="K76" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4219,7 +4226,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I77" s="36">
+      <c r="I77" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4227,7 +4234,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K77" s="36">
+      <c r="K77" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4251,7 +4258,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I78" s="36">
+      <c r="I78" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4259,7 +4266,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K78" s="36">
+      <c r="K78" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4283,7 +4290,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I79" s="36">
+      <c r="I79" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4291,7 +4298,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K79" s="36">
+      <c r="K79" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4315,7 +4322,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I80" s="36">
+      <c r="I80" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4323,7 +4330,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K80" s="36">
+      <c r="K80" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4347,7 +4354,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I81" s="36">
+      <c r="I81" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4355,7 +4362,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K81" s="36">
+      <c r="K81" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4379,7 +4386,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I82" s="36">
+      <c r="I82" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4387,7 +4394,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K82" s="36">
+      <c r="K82" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4411,7 +4418,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I83" s="36">
+      <c r="I83" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4419,7 +4426,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K83" s="36">
+      <c r="K83" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4443,7 +4450,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I84" s="36">
+      <c r="I84" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4451,7 +4458,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K84" s="36">
+      <c r="K84" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4475,7 +4482,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I85" s="36">
+      <c r="I85" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4483,7 +4490,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K85" s="36">
+      <c r="K85" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4507,7 +4514,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I86" s="36">
+      <c r="I86" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4515,7 +4522,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K86" s="36">
+      <c r="K86" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4539,7 +4546,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I87" s="36">
+      <c r="I87" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4547,7 +4554,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K87" s="36">
+      <c r="K87" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4571,7 +4578,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I88" s="36">
+      <c r="I88" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4579,7 +4586,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K88" s="36">
+      <c r="K88" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4603,7 +4610,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I89" s="36">
+      <c r="I89" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4611,7 +4618,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K89" s="36">
+      <c r="K89" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4635,7 +4642,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I90" s="36">
+      <c r="I90" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4643,7 +4650,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K90" s="36">
+      <c r="K90" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4667,7 +4674,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I91" s="36">
+      <c r="I91" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4675,7 +4682,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K91" s="36">
+      <c r="K91" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4699,7 +4706,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I92" s="36">
+      <c r="I92" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4707,7 +4714,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K92" s="36">
+      <c r="K92" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4731,7 +4738,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I93" s="36">
+      <c r="I93" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4739,7 +4746,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K93" s="36">
+      <c r="K93" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4763,7 +4770,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I94" s="36">
+      <c r="I94" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4771,7 +4778,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K94" s="36">
+      <c r="K94" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4795,7 +4802,7 @@
         <f t="shared" ref="H95:H126" si="21">F95-G95</f>
         <v>0</v>
       </c>
-      <c r="I95" s="36">
+      <c r="I95" s="37">
         <f t="shared" ref="I95:I158" si="22">((F95)-(D95*C95)-G95)*0.3</f>
         <v>0</v>
       </c>
@@ -4803,7 +4810,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K95" s="36">
+      <c r="K95" s="37">
         <f t="shared" ref="K95:K158" si="23">((F95)-(D95*C95)-G95)*0.1</f>
         <v>0</v>
       </c>
@@ -4827,7 +4834,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I96" s="36">
+      <c r="I96" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4835,7 +4842,7 @@
         <f t="shared" ref="J96:J159" si="24">((F96)-(D96*C96)-G96)*0.6</f>
         <v>0</v>
       </c>
-      <c r="K96" s="36">
+      <c r="K96" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4859,7 +4866,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I97" s="36">
+      <c r="I97" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4867,7 +4874,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K97" s="36">
+      <c r="K97" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4891,7 +4898,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I98" s="36">
+      <c r="I98" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4899,7 +4906,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K98" s="36">
+      <c r="K98" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4923,7 +4930,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I99" s="36">
+      <c r="I99" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4931,7 +4938,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K99" s="36">
+      <c r="K99" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4955,7 +4962,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I100" s="36">
+      <c r="I100" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4963,7 +4970,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K100" s="36">
+      <c r="K100" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4987,7 +4994,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I101" s="36">
+      <c r="I101" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4995,7 +5002,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K101" s="36">
+      <c r="K101" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5019,7 +5026,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I102" s="36">
+      <c r="I102" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5027,7 +5034,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K102" s="36">
+      <c r="K102" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5051,7 +5058,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I103" s="36">
+      <c r="I103" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5059,7 +5066,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K103" s="36">
+      <c r="K103" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5083,7 +5090,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I104" s="36">
+      <c r="I104" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5091,7 +5098,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K104" s="36">
+      <c r="K104" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5115,7 +5122,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I105" s="36">
+      <c r="I105" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5123,7 +5130,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K105" s="36">
+      <c r="K105" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5147,7 +5154,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I106" s="36">
+      <c r="I106" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5155,7 +5162,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K106" s="36">
+      <c r="K106" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5179,7 +5186,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I107" s="36">
+      <c r="I107" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5187,7 +5194,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K107" s="36">
+      <c r="K107" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5211,7 +5218,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I108" s="36">
+      <c r="I108" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5219,7 +5226,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K108" s="36">
+      <c r="K108" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5243,7 +5250,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I109" s="36">
+      <c r="I109" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5251,7 +5258,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K109" s="36">
+      <c r="K109" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5275,7 +5282,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I110" s="36">
+      <c r="I110" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5283,7 +5290,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K110" s="36">
+      <c r="K110" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5307,7 +5314,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I111" s="36">
+      <c r="I111" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5315,7 +5322,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K111" s="36">
+      <c r="K111" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5339,7 +5346,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I112" s="36">
+      <c r="I112" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5347,7 +5354,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K112" s="36">
+      <c r="K112" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5371,7 +5378,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I113" s="36">
+      <c r="I113" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5379,7 +5386,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K113" s="36">
+      <c r="K113" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5403,7 +5410,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I114" s="36">
+      <c r="I114" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5411,7 +5418,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K114" s="36">
+      <c r="K114" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5435,7 +5442,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I115" s="36">
+      <c r="I115" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5443,7 +5450,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K115" s="36">
+      <c r="K115" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5467,7 +5474,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I116" s="36">
+      <c r="I116" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5475,7 +5482,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K116" s="36">
+      <c r="K116" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5499,7 +5506,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I117" s="36">
+      <c r="I117" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5507,7 +5514,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K117" s="36">
+      <c r="K117" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5531,7 +5538,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I118" s="36">
+      <c r="I118" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5539,7 +5546,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K118" s="36">
+      <c r="K118" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5563,7 +5570,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I119" s="36">
+      <c r="I119" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5571,7 +5578,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K119" s="36">
+      <c r="K119" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5595,7 +5602,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I120" s="36">
+      <c r="I120" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5603,7 +5610,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K120" s="36">
+      <c r="K120" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5627,7 +5634,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I121" s="36">
+      <c r="I121" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5635,7 +5642,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K121" s="36">
+      <c r="K121" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5659,7 +5666,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I122" s="36">
+      <c r="I122" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5667,7 +5674,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K122" s="36">
+      <c r="K122" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5691,7 +5698,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I123" s="36">
+      <c r="I123" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5699,7 +5706,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K123" s="36">
+      <c r="K123" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5723,7 +5730,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I124" s="36">
+      <c r="I124" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5731,7 +5738,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K124" s="36">
+      <c r="K124" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5755,7 +5762,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I125" s="36">
+      <c r="I125" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5763,7 +5770,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K125" s="36">
+      <c r="K125" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5787,7 +5794,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I126" s="36">
+      <c r="I126" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5795,7 +5802,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K126" s="36">
+      <c r="K126" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5819,7 +5826,7 @@
         <f t="shared" ref="H127:H158" si="25">F127-G127</f>
         <v>0</v>
       </c>
-      <c r="I127" s="36">
+      <c r="I127" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5827,7 +5834,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K127" s="36">
+      <c r="K127" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5851,7 +5858,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I128" s="36">
+      <c r="I128" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5859,7 +5866,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K128" s="36">
+      <c r="K128" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5883,7 +5890,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I129" s="36">
+      <c r="I129" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5891,7 +5898,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K129" s="36">
+      <c r="K129" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5915,7 +5922,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I130" s="36">
+      <c r="I130" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5923,7 +5930,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K130" s="36">
+      <c r="K130" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5947,7 +5954,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I131" s="36">
+      <c r="I131" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5955,7 +5962,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K131" s="36">
+      <c r="K131" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5979,7 +5986,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I132" s="36">
+      <c r="I132" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5987,7 +5994,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K132" s="36">
+      <c r="K132" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6011,7 +6018,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I133" s="36">
+      <c r="I133" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6019,7 +6026,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K133" s="36">
+      <c r="K133" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6043,7 +6050,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I134" s="36">
+      <c r="I134" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6051,7 +6058,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K134" s="36">
+      <c r="K134" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6075,7 +6082,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I135" s="36">
+      <c r="I135" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6083,7 +6090,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K135" s="36">
+      <c r="K135" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6107,7 +6114,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I136" s="36">
+      <c r="I136" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6115,7 +6122,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K136" s="36">
+      <c r="K136" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6139,7 +6146,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I137" s="36">
+      <c r="I137" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6147,7 +6154,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K137" s="36">
+      <c r="K137" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6171,7 +6178,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I138" s="36">
+      <c r="I138" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6179,7 +6186,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K138" s="36">
+      <c r="K138" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6203,7 +6210,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I139" s="36">
+      <c r="I139" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6211,7 +6218,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K139" s="36">
+      <c r="K139" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6235,7 +6242,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I140" s="36">
+      <c r="I140" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6243,7 +6250,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K140" s="36">
+      <c r="K140" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6267,7 +6274,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I141" s="36">
+      <c r="I141" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6275,7 +6282,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K141" s="36">
+      <c r="K141" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6299,7 +6306,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I142" s="36">
+      <c r="I142" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6307,7 +6314,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K142" s="36">
+      <c r="K142" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6331,7 +6338,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I143" s="36">
+      <c r="I143" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6339,7 +6346,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K143" s="36">
+      <c r="K143" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6363,7 +6370,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I144" s="36">
+      <c r="I144" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6371,7 +6378,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K144" s="36">
+      <c r="K144" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6395,7 +6402,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I145" s="36">
+      <c r="I145" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6403,7 +6410,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K145" s="36">
+      <c r="K145" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6427,7 +6434,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I146" s="36">
+      <c r="I146" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6435,7 +6442,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K146" s="36">
+      <c r="K146" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6459,7 +6466,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I147" s="36">
+      <c r="I147" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6467,7 +6474,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K147" s="36">
+      <c r="K147" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6491,7 +6498,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I148" s="36">
+      <c r="I148" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6499,7 +6506,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K148" s="36">
+      <c r="K148" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6523,7 +6530,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I149" s="36">
+      <c r="I149" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6531,7 +6538,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K149" s="36">
+      <c r="K149" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6555,7 +6562,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I150" s="36">
+      <c r="I150" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6563,7 +6570,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K150" s="36">
+      <c r="K150" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6587,7 +6594,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I151" s="36">
+      <c r="I151" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6595,7 +6602,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K151" s="36">
+      <c r="K151" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6619,7 +6626,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I152" s="36">
+      <c r="I152" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6627,7 +6634,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K152" s="36">
+      <c r="K152" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6651,7 +6658,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I153" s="36">
+      <c r="I153" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6659,7 +6666,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K153" s="36">
+      <c r="K153" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6683,7 +6690,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I154" s="36">
+      <c r="I154" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6691,7 +6698,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K154" s="36">
+      <c r="K154" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6715,7 +6722,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I155" s="36">
+      <c r="I155" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6723,7 +6730,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K155" s="36">
+      <c r="K155" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6747,7 +6754,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I156" s="36">
+      <c r="I156" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6755,7 +6762,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K156" s="36">
+      <c r="K156" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6779,7 +6786,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I157" s="36">
+      <c r="I157" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6787,7 +6794,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K157" s="36">
+      <c r="K157" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6811,7 +6818,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I158" s="36">
+      <c r="I158" s="37">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6819,7 +6826,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K158" s="36">
+      <c r="K158" s="37">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6842,7 +6849,7 @@
         <f t="shared" ref="H159:H180" si="27">F159-G159</f>
         <v>0</v>
       </c>
-      <c r="I159" s="36">
+      <c r="I159" s="37">
         <f t="shared" ref="I159:I222" si="28">((F159)-(D159*C159)-G159)*0.3</f>
         <v>0</v>
       </c>
@@ -6850,7 +6857,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K159" s="36">
+      <c r="K159" s="37">
         <f t="shared" ref="K159:K222" si="29">((F159)-(D159*C159)-G159)*0.1</f>
         <v>0</v>
       </c>
@@ -6873,7 +6880,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I160" s="36">
+      <c r="I160" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -6881,7 +6888,7 @@
         <f t="shared" ref="J160:J223" si="30">((F160)-(D160*C160)-G160)*0.6</f>
         <v>0</v>
       </c>
-      <c r="K160" s="36">
+      <c r="K160" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -6904,7 +6911,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I161" s="36">
+      <c r="I161" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -6912,7 +6919,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K161" s="36">
+      <c r="K161" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -6935,7 +6942,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I162" s="36">
+      <c r="I162" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -6943,7 +6950,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K162" s="36">
+      <c r="K162" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -6966,7 +6973,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I163" s="36">
+      <c r="I163" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -6974,7 +6981,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K163" s="36">
+      <c r="K163" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -6997,7 +7004,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I164" s="36">
+      <c r="I164" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7005,7 +7012,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K164" s="36">
+      <c r="K164" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7028,7 +7035,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I165" s="36">
+      <c r="I165" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7036,7 +7043,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K165" s="36">
+      <c r="K165" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7059,7 +7066,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I166" s="36">
+      <c r="I166" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7067,7 +7074,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K166" s="36">
+      <c r="K166" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7090,7 +7097,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I167" s="36">
+      <c r="I167" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7098,7 +7105,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K167" s="36">
+      <c r="K167" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7121,7 +7128,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I168" s="36">
+      <c r="I168" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7129,7 +7136,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K168" s="36">
+      <c r="K168" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7152,7 +7159,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I169" s="36">
+      <c r="I169" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7160,7 +7167,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K169" s="36">
+      <c r="K169" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7183,7 +7190,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I170" s="36">
+      <c r="I170" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7191,7 +7198,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K170" s="36">
+      <c r="K170" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7214,7 +7221,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I171" s="36">
+      <c r="I171" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7222,7 +7229,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K171" s="36">
+      <c r="K171" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7245,7 +7252,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I172" s="36">
+      <c r="I172" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7253,7 +7260,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K172" s="36">
+      <c r="K172" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7276,7 +7283,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I173" s="36">
+      <c r="I173" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7284,7 +7291,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K173" s="36">
+      <c r="K173" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7307,7 +7314,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I174" s="36">
+      <c r="I174" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7315,7 +7322,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K174" s="36">
+      <c r="K174" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7338,7 +7345,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I175" s="36">
+      <c r="I175" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7346,7 +7353,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K175" s="36">
+      <c r="K175" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7369,7 +7376,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I176" s="36">
+      <c r="I176" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7377,7 +7384,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K176" s="36">
+      <c r="K176" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7400,7 +7407,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I177" s="36">
+      <c r="I177" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7408,7 +7415,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K177" s="36">
+      <c r="K177" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7431,7 +7438,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I178" s="36">
+      <c r="I178" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7439,7 +7446,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K178" s="36">
+      <c r="K178" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7462,7 +7469,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I179" s="36">
+      <c r="I179" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7470,7 +7477,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K179" s="36">
+      <c r="K179" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7493,7 +7500,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I180" s="36">
+      <c r="I180" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7501,7 +7508,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K180" s="36">
+      <c r="K180" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7520,7 +7527,7 @@
       <c r="G181" s="21">
         <v>0</v>
       </c>
-      <c r="I181" s="36">
+      <c r="I181" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7528,7 +7535,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K181" s="36">
+      <c r="K181" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7547,7 +7554,7 @@
       <c r="G182" s="21">
         <v>0</v>
       </c>
-      <c r="I182" s="36">
+      <c r="I182" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7555,7 +7562,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K182" s="36">
+      <c r="K182" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7574,7 +7581,7 @@
       <c r="G183" s="21">
         <v>0</v>
       </c>
-      <c r="I183" s="36">
+      <c r="I183" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7582,7 +7589,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K183" s="36">
+      <c r="K183" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7601,7 +7608,7 @@
       <c r="G184" s="21">
         <v>0</v>
       </c>
-      <c r="I184" s="36">
+      <c r="I184" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7609,7 +7616,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K184" s="36">
+      <c r="K184" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7628,7 +7635,7 @@
       <c r="G185" s="21">
         <v>0</v>
       </c>
-      <c r="I185" s="36">
+      <c r="I185" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7636,7 +7643,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K185" s="36">
+      <c r="K185" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7655,7 +7662,7 @@
       <c r="G186" s="21">
         <v>0</v>
       </c>
-      <c r="I186" s="36">
+      <c r="I186" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7663,7 +7670,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K186" s="36">
+      <c r="K186" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7682,7 +7689,7 @@
       <c r="G187" s="21">
         <v>0</v>
       </c>
-      <c r="I187" s="36">
+      <c r="I187" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7690,7 +7697,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K187" s="36">
+      <c r="K187" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7709,7 +7716,7 @@
       <c r="G188" s="21">
         <v>0</v>
       </c>
-      <c r="I188" s="36">
+      <c r="I188" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7717,7 +7724,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K188" s="36">
+      <c r="K188" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7736,7 +7743,7 @@
       <c r="G189" s="21">
         <v>0</v>
       </c>
-      <c r="I189" s="36">
+      <c r="I189" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7744,7 +7751,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K189" s="36">
+      <c r="K189" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7763,7 +7770,7 @@
       <c r="G190" s="21">
         <v>0</v>
       </c>
-      <c r="I190" s="36">
+      <c r="I190" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7771,7 +7778,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K190" s="36">
+      <c r="K190" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7790,7 +7797,7 @@
       <c r="G191" s="21">
         <v>0</v>
       </c>
-      <c r="I191" s="36">
+      <c r="I191" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7798,7 +7805,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K191" s="36">
+      <c r="K191" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7817,7 +7824,7 @@
       <c r="G192" s="21">
         <v>0</v>
       </c>
-      <c r="I192" s="36">
+      <c r="I192" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7825,7 +7832,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K192" s="36">
+      <c r="K192" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7844,7 +7851,7 @@
       <c r="G193" s="21">
         <v>0</v>
       </c>
-      <c r="I193" s="36">
+      <c r="I193" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7852,7 +7859,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K193" s="36">
+      <c r="K193" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7871,7 +7878,7 @@
       <c r="G194" s="21">
         <v>0</v>
       </c>
-      <c r="I194" s="36">
+      <c r="I194" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7879,7 +7886,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K194" s="36">
+      <c r="K194" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7898,7 +7905,7 @@
       <c r="G195" s="21">
         <v>0</v>
       </c>
-      <c r="I195" s="36">
+      <c r="I195" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7906,7 +7913,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K195" s="36">
+      <c r="K195" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7925,7 +7932,7 @@
       <c r="G196" s="21">
         <v>0</v>
       </c>
-      <c r="I196" s="36">
+      <c r="I196" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7933,7 +7940,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K196" s="36">
+      <c r="K196" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7952,7 +7959,7 @@
       <c r="G197" s="21">
         <v>0</v>
       </c>
-      <c r="I197" s="36">
+      <c r="I197" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7960,7 +7967,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K197" s="36">
+      <c r="K197" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -7979,7 +7986,7 @@
       <c r="G198" s="21">
         <v>0</v>
       </c>
-      <c r="I198" s="36">
+      <c r="I198" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7987,7 +7994,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K198" s="36">
+      <c r="K198" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8006,7 +8013,7 @@
       <c r="G199" s="21">
         <v>0</v>
       </c>
-      <c r="I199" s="36">
+      <c r="I199" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8014,7 +8021,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K199" s="36">
+      <c r="K199" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8033,7 +8040,7 @@
       <c r="G200" s="21">
         <v>0</v>
       </c>
-      <c r="I200" s="36">
+      <c r="I200" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8041,7 +8048,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K200" s="36">
+      <c r="K200" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8060,7 +8067,7 @@
       <c r="G201" s="21">
         <v>0</v>
       </c>
-      <c r="I201" s="36">
+      <c r="I201" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8068,7 +8075,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K201" s="36">
+      <c r="K201" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8087,7 +8094,7 @@
       <c r="G202" s="21">
         <v>0</v>
       </c>
-      <c r="I202" s="36">
+      <c r="I202" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8095,7 +8102,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K202" s="36">
+      <c r="K202" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8114,7 +8121,7 @@
       <c r="G203" s="21">
         <v>0</v>
       </c>
-      <c r="I203" s="36">
+      <c r="I203" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8122,7 +8129,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K203" s="36">
+      <c r="K203" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8141,7 +8148,7 @@
       <c r="G204" s="21">
         <v>0</v>
       </c>
-      <c r="I204" s="36">
+      <c r="I204" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8149,7 +8156,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K204" s="36">
+      <c r="K204" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8168,7 +8175,7 @@
       <c r="G205" s="21">
         <v>0</v>
       </c>
-      <c r="I205" s="36">
+      <c r="I205" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8176,7 +8183,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K205" s="36">
+      <c r="K205" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8195,7 +8202,7 @@
       <c r="G206" s="21">
         <v>0</v>
       </c>
-      <c r="I206" s="36">
+      <c r="I206" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8203,7 +8210,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K206" s="36">
+      <c r="K206" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8222,7 +8229,7 @@
       <c r="G207" s="21">
         <v>0</v>
       </c>
-      <c r="I207" s="36">
+      <c r="I207" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8230,7 +8237,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K207" s="36">
+      <c r="K207" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8249,7 +8256,7 @@
       <c r="G208" s="21">
         <v>0</v>
       </c>
-      <c r="I208" s="36">
+      <c r="I208" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8257,7 +8264,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K208" s="36">
+      <c r="K208" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8276,7 +8283,7 @@
       <c r="G209" s="21">
         <v>0</v>
       </c>
-      <c r="I209" s="36">
+      <c r="I209" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8284,7 +8291,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K209" s="36">
+      <c r="K209" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8303,7 +8310,7 @@
       <c r="G210" s="21">
         <v>0</v>
       </c>
-      <c r="I210" s="36">
+      <c r="I210" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8311,7 +8318,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K210" s="36">
+      <c r="K210" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8330,7 +8337,7 @@
       <c r="G211" s="21">
         <v>0</v>
       </c>
-      <c r="I211" s="36">
+      <c r="I211" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8338,7 +8345,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K211" s="36">
+      <c r="K211" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8357,7 +8364,7 @@
       <c r="G212" s="21">
         <v>0</v>
       </c>
-      <c r="I212" s="36">
+      <c r="I212" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8365,7 +8372,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K212" s="36">
+      <c r="K212" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8384,7 +8391,7 @@
       <c r="G213" s="21">
         <v>0</v>
       </c>
-      <c r="I213" s="36">
+      <c r="I213" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8392,7 +8399,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K213" s="36">
+      <c r="K213" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8411,7 +8418,7 @@
       <c r="G214" s="21">
         <v>0</v>
       </c>
-      <c r="I214" s="36">
+      <c r="I214" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8419,7 +8426,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K214" s="36">
+      <c r="K214" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8438,7 +8445,7 @@
       <c r="G215" s="21">
         <v>0</v>
       </c>
-      <c r="I215" s="36">
+      <c r="I215" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8446,7 +8453,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K215" s="36">
+      <c r="K215" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8465,7 +8472,7 @@
       <c r="G216" s="21">
         <v>0</v>
       </c>
-      <c r="I216" s="36">
+      <c r="I216" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8473,7 +8480,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K216" s="36">
+      <c r="K216" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8492,7 +8499,7 @@
       <c r="G217" s="21">
         <v>0</v>
       </c>
-      <c r="I217" s="36">
+      <c r="I217" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8500,7 +8507,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K217" s="36">
+      <c r="K217" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8519,7 +8526,7 @@
       <c r="G218" s="21">
         <v>0</v>
       </c>
-      <c r="I218" s="36">
+      <c r="I218" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8527,7 +8534,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K218" s="36">
+      <c r="K218" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8546,7 +8553,7 @@
       <c r="G219" s="21">
         <v>0</v>
       </c>
-      <c r="I219" s="36">
+      <c r="I219" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8554,7 +8561,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K219" s="36">
+      <c r="K219" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8573,7 +8580,7 @@
       <c r="G220" s="21">
         <v>0</v>
       </c>
-      <c r="I220" s="36">
+      <c r="I220" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8581,7 +8588,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K220" s="36">
+      <c r="K220" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8600,7 +8607,7 @@
       <c r="G221" s="21">
         <v>0</v>
       </c>
-      <c r="I221" s="36">
+      <c r="I221" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8608,7 +8615,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K221" s="36">
+      <c r="K221" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8627,7 +8634,7 @@
       <c r="G222" s="21">
         <v>0</v>
       </c>
-      <c r="I222" s="36">
+      <c r="I222" s="37">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8635,7 +8642,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K222" s="36">
+      <c r="K222" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -8654,7 +8661,7 @@
       <c r="G223" s="21">
         <v>0</v>
       </c>
-      <c r="I223" s="36">
+      <c r="I223" s="37">
         <f t="shared" ref="I223:I267" si="32">((F223)-(D223*C223)-G223)*0.3</f>
         <v>0</v>
       </c>
@@ -8662,7 +8669,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K223" s="36">
+      <c r="K223" s="37">
         <f t="shared" ref="K223:K286" si="33">((F223)-(D223*C223)-G223)*0.1</f>
         <v>0</v>
       </c>
@@ -8681,7 +8688,7 @@
       <c r="G224" s="21">
         <v>0</v>
       </c>
-      <c r="I224" s="36">
+      <c r="I224" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8689,7 +8696,7 @@
         <f t="shared" ref="J224:J287" si="34">((F224)-(D224*C224)-G224)*0.6</f>
         <v>0</v>
       </c>
-      <c r="K224" s="36">
+      <c r="K224" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8708,7 +8715,7 @@
       <c r="G225" s="21">
         <v>0</v>
       </c>
-      <c r="I225" s="36">
+      <c r="I225" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8716,7 +8723,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K225" s="36">
+      <c r="K225" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8735,7 +8742,7 @@
       <c r="G226" s="21">
         <v>0</v>
       </c>
-      <c r="I226" s="36">
+      <c r="I226" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8743,7 +8750,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K226" s="36">
+      <c r="K226" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8762,7 +8769,7 @@
       <c r="G227" s="21">
         <v>0</v>
       </c>
-      <c r="I227" s="36">
+      <c r="I227" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8770,7 +8777,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K227" s="36">
+      <c r="K227" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8789,7 +8796,7 @@
       <c r="G228" s="21">
         <v>0</v>
       </c>
-      <c r="I228" s="36">
+      <c r="I228" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8797,7 +8804,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K228" s="36">
+      <c r="K228" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8816,7 +8823,7 @@
       <c r="G229" s="21">
         <v>0</v>
       </c>
-      <c r="I229" s="36">
+      <c r="I229" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8824,7 +8831,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K229" s="36">
+      <c r="K229" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8843,7 +8850,7 @@
       <c r="G230" s="21">
         <v>0</v>
       </c>
-      <c r="I230" s="36">
+      <c r="I230" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8851,7 +8858,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K230" s="36">
+      <c r="K230" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8870,7 +8877,7 @@
       <c r="G231" s="21">
         <v>0</v>
       </c>
-      <c r="I231" s="36">
+      <c r="I231" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8878,7 +8885,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K231" s="36">
+      <c r="K231" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8897,7 +8904,7 @@
       <c r="G232" s="21">
         <v>0</v>
       </c>
-      <c r="I232" s="36">
+      <c r="I232" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8905,7 +8912,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K232" s="36">
+      <c r="K232" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8924,7 +8931,7 @@
       <c r="G233" s="21">
         <v>0</v>
       </c>
-      <c r="I233" s="36">
+      <c r="I233" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8932,7 +8939,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K233" s="36">
+      <c r="K233" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8951,7 +8958,7 @@
       <c r="G234" s="21">
         <v>0</v>
       </c>
-      <c r="I234" s="36">
+      <c r="I234" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8959,7 +8966,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K234" s="36">
+      <c r="K234" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8978,7 +8985,7 @@
       <c r="G235" s="21">
         <v>0</v>
       </c>
-      <c r="I235" s="36">
+      <c r="I235" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -8986,7 +8993,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K235" s="36">
+      <c r="K235" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9005,7 +9012,7 @@
       <c r="G236" s="21">
         <v>0</v>
       </c>
-      <c r="I236" s="36">
+      <c r="I236" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9013,7 +9020,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K236" s="36">
+      <c r="K236" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9032,7 +9039,7 @@
       <c r="G237" s="21">
         <v>0</v>
       </c>
-      <c r="I237" s="36">
+      <c r="I237" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9040,7 +9047,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K237" s="36">
+      <c r="K237" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9059,7 +9066,7 @@
       <c r="G238" s="21">
         <v>0</v>
       </c>
-      <c r="I238" s="36">
+      <c r="I238" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9067,7 +9074,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K238" s="36">
+      <c r="K238" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9086,7 +9093,7 @@
       <c r="G239" s="21">
         <v>0</v>
       </c>
-      <c r="I239" s="36">
+      <c r="I239" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9094,7 +9101,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K239" s="36">
+      <c r="K239" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9110,7 +9117,7 @@
       <c r="G240" s="21">
         <v>0</v>
       </c>
-      <c r="I240" s="36">
+      <c r="I240" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9118,7 +9125,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K240" s="36">
+      <c r="K240" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9130,7 +9137,7 @@
       <c r="G241" s="21">
         <v>0</v>
       </c>
-      <c r="I241" s="36">
+      <c r="I241" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9138,7 +9145,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K241" s="36">
+      <c r="K241" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9150,7 +9157,7 @@
       <c r="G242" s="21">
         <v>0</v>
       </c>
-      <c r="I242" s="36">
+      <c r="I242" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9158,7 +9165,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K242" s="36">
+      <c r="K242" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9170,7 +9177,7 @@
       <c r="G243" s="21">
         <v>0</v>
       </c>
-      <c r="I243" s="36">
+      <c r="I243" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9178,7 +9185,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K243" s="36">
+      <c r="K243" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9190,7 +9197,7 @@
       <c r="G244" s="21">
         <v>0</v>
       </c>
-      <c r="I244" s="36">
+      <c r="I244" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9198,7 +9205,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K244" s="36">
+      <c r="K244" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9210,7 +9217,7 @@
       <c r="G245" s="21">
         <v>0</v>
       </c>
-      <c r="I245" s="36">
+      <c r="I245" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9218,7 +9225,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K245" s="36">
+      <c r="K245" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9230,7 +9237,7 @@
       <c r="G246" s="21">
         <v>0</v>
       </c>
-      <c r="I246" s="36">
+      <c r="I246" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9238,7 +9245,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K246" s="36">
+      <c r="K246" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9250,7 +9257,7 @@
       <c r="G247" s="21">
         <v>0</v>
       </c>
-      <c r="I247" s="36">
+      <c r="I247" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9258,7 +9265,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K247" s="36">
+      <c r="K247" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9270,7 +9277,7 @@
       <c r="G248" s="21">
         <v>0</v>
       </c>
-      <c r="I248" s="36">
+      <c r="I248" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9278,7 +9285,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K248" s="36">
+      <c r="K248" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9290,7 +9297,7 @@
       <c r="G249" s="21">
         <v>0</v>
       </c>
-      <c r="I249" s="36">
+      <c r="I249" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9298,7 +9305,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K249" s="36">
+      <c r="K249" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9310,7 +9317,7 @@
       <c r="G250" s="21">
         <v>0</v>
       </c>
-      <c r="I250" s="36">
+      <c r="I250" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9318,7 +9325,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K250" s="36">
+      <c r="K250" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9330,7 +9337,7 @@
       <c r="G251" s="21">
         <v>0</v>
       </c>
-      <c r="I251" s="36">
+      <c r="I251" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9338,7 +9345,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K251" s="36">
+      <c r="K251" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9350,7 +9357,7 @@
       <c r="G252" s="21">
         <v>0</v>
       </c>
-      <c r="I252" s="36">
+      <c r="I252" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9358,7 +9365,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K252" s="36">
+      <c r="K252" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9370,7 +9377,7 @@
       <c r="G253" s="21">
         <v>0</v>
       </c>
-      <c r="I253" s="36">
+      <c r="I253" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9378,7 +9385,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K253" s="36">
+      <c r="K253" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9390,7 +9397,7 @@
       <c r="G254" s="21">
         <v>0</v>
       </c>
-      <c r="I254" s="36">
+      <c r="I254" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9398,7 +9405,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K254" s="36">
+      <c r="K254" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9410,7 +9417,7 @@
       <c r="G255" s="21">
         <v>0</v>
       </c>
-      <c r="I255" s="36">
+      <c r="I255" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9418,7 +9425,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K255" s="36">
+      <c r="K255" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9430,7 +9437,7 @@
       <c r="G256" s="21">
         <v>0</v>
       </c>
-      <c r="I256" s="36">
+      <c r="I256" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9438,7 +9445,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K256" s="36">
+      <c r="K256" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9450,7 +9457,7 @@
       <c r="G257" s="21">
         <v>0</v>
       </c>
-      <c r="I257" s="36">
+      <c r="I257" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9458,7 +9465,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K257" s="36">
+      <c r="K257" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9470,7 +9477,7 @@
       <c r="G258" s="21">
         <v>0</v>
       </c>
-      <c r="I258" s="36">
+      <c r="I258" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9478,7 +9485,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K258" s="36">
+      <c r="K258" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9490,7 +9497,7 @@
       <c r="G259" s="21">
         <v>0</v>
       </c>
-      <c r="I259" s="36">
+      <c r="I259" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9498,7 +9505,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K259" s="36">
+      <c r="K259" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9510,7 +9517,7 @@
       <c r="G260" s="21">
         <v>0</v>
       </c>
-      <c r="I260" s="36">
+      <c r="I260" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9518,7 +9525,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K260" s="36">
+      <c r="K260" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9530,7 +9537,7 @@
       <c r="G261" s="21">
         <v>0</v>
       </c>
-      <c r="I261" s="36">
+      <c r="I261" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9538,7 +9545,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K261" s="36">
+      <c r="K261" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9550,7 +9557,7 @@
       <c r="G262" s="21">
         <v>0</v>
       </c>
-      <c r="I262" s="36">
+      <c r="I262" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9558,7 +9565,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K262" s="36">
+      <c r="K262" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9570,7 +9577,7 @@
       <c r="G263" s="21">
         <v>0</v>
       </c>
-      <c r="I263" s="36">
+      <c r="I263" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9578,7 +9585,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K263" s="36">
+      <c r="K263" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9590,7 +9597,7 @@
       <c r="G264" s="21">
         <v>0</v>
       </c>
-      <c r="I264" s="36">
+      <c r="I264" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9598,7 +9605,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K264" s="36">
+      <c r="K264" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9610,7 +9617,7 @@
       <c r="G265" s="21">
         <v>0</v>
       </c>
-      <c r="I265" s="36">
+      <c r="I265" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9618,7 +9625,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K265" s="36">
+      <c r="K265" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9630,7 +9637,7 @@
       <c r="G266" s="21">
         <v>0</v>
       </c>
-      <c r="I266" s="36">
+      <c r="I266" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9638,7 +9645,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K266" s="36">
+      <c r="K266" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9650,7 +9657,7 @@
       <c r="G267" s="21">
         <v>0</v>
       </c>
-      <c r="I267" s="36">
+      <c r="I267" s="37">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -9658,7 +9665,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K267" s="36">
+      <c r="K267" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9674,7 +9681,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K268" s="36">
+      <c r="K268" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9690,7 +9697,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K269" s="36">
+      <c r="K269" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9703,7 +9710,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K270" s="36">
+      <c r="K270" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9716,7 +9723,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K271" s="36">
+      <c r="K271" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9729,7 +9736,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K272" s="36">
+      <c r="K272" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9742,7 +9749,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K273" s="36">
+      <c r="K273" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9755,7 +9762,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K274" s="36">
+      <c r="K274" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9768,7 +9775,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K275" s="36">
+      <c r="K275" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9781,7 +9788,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K276" s="36">
+      <c r="K276" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9794,7 +9801,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K277" s="36">
+      <c r="K277" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9807,7 +9814,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K278" s="36">
+      <c r="K278" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9820,7 +9827,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K279" s="36">
+      <c r="K279" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9833,7 +9840,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K280" s="36">
+      <c r="K280" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9846,7 +9853,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K281" s="36">
+      <c r="K281" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9859,7 +9866,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K282" s="36">
+      <c r="K282" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9872,7 +9879,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K283" s="36">
+      <c r="K283" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9882,7 +9889,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K284" s="36">
+      <c r="K284" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9892,7 +9899,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K285" s="36">
+      <c r="K285" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9902,7 +9909,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K286" s="36">
+      <c r="K286" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -9912,7 +9919,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K287" s="36">
+      <c r="K287" s="37">
         <f>((F287)-(D287*C287)-G287)*0.1</f>
         <v>0</v>
       </c>
@@ -9922,7 +9929,7 @@
         <f t="shared" ref="J288:J319" si="35">((F288)-(D288*C288)-G288)*0.6</f>
         <v>0</v>
       </c>
-      <c r="K288" s="36">
+      <c r="K288" s="37">
         <f>((F288)-(D288*C288)-G288)*0.1</f>
         <v>0</v>
       </c>
@@ -9932,7 +9939,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="K289" s="36">
+      <c r="K289" s="37">
         <f>((F289)-(D289*C289)-G289)*0.1</f>
         <v>0</v>
       </c>
@@ -10119,7 +10126,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 B40 B2:B38 B41:B158">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B158">
       <formula1>"Anti-sober,Arctic Materia,Glittersphere,Lotus Drift,Lumberfizz,Noble Aplomb,Pearanil Wisp,Sentir Le Creme,Shadow Orchids,Snow Crystal Gust,The Contained,The Unchained,Windsparks"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10131,13 +10138,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.1578947368421" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1052631578947" style="2" customWidth="1"/>
@@ -10286,6 +10293,23 @@
         <v>29.92</v>
       </c>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>45611</v>
+      </c>
+      <c r="B9" s="2">
+        <v>350</v>
+      </c>
+      <c r="C9" s="2">
+        <v>255.82</v>
+      </c>
+      <c r="D9" s="2">
+        <v>80.72</v>
+      </c>
+      <c r="E9" s="2">
+        <v>13.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
